--- a/output/z3_analysis_results.xlsx
+++ b/output/z3_analysis_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kulan\Dropbox\Shared_IoT_Project_Kulani\AGENIOT\AgenIoT\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0895A1-D985-470B-B07C-99887C16A00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0AD915-2CE3-41B3-9B3D-E862D8020DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="1968" windowWidth="22440" windowHeight="10092" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="434">
   <si>
     <t>ID</t>
   </si>
@@ -28,9 +28,6 @@
     <t>RuleSet</t>
   </si>
   <si>
-    <t>Z3Formula</t>
-  </si>
-  <si>
     <t>Z3Result</t>
   </si>
   <si>
@@ -44,29 +41,27 @@
   </si>
   <si>
     <t>[Implies(humiditySensor_relativeHumidity_humidity &gt;= 50,
-        ventFan_switch_on), Implies(humiditySensor_relativeHumidity_humidity &lt;= 50,
+        ac_ventFan_switch_on), Implies(humiditySensor_relativeHumidity_humidity &lt;= 50,
         Not(ac_ventFan_switch_on))]</t>
   </si>
   <si>
+    <t>unsat</t>
+  </si>
+  <si>
+    <t>[50 == humiditySensor_relativeHumidity_humidity]</t>
+  </si>
+  <si>
+    <t>['IF door.lock.lock=="unlocked", THEN wait("5 minutes") and door.lock.lock()']</t>
+  </si>
+  <si>
+    <t>[Implies(door_lock_lock_unlocked, ac_w_300_door_lock_lock)]</t>
+  </si>
+  <si>
     <t>sat</t>
   </si>
   <si>
-    <t>[ac_ventFan_switch_on = False,
- ventFan_switch_on = True,
- humiditySensor_relativeHumidity_humidity = 50]</t>
-  </si>
-  <si>
-    <t>[50 == humiditySensor_relativeHumidity_humidity]</t>
-  </si>
-  <si>
-    <t>['IF door.lock.lock=="unlocked", THEN wait("5 minutes") and door.lock.lock()']</t>
-  </si>
-  <si>
-    <t>[Implies(door_lock_lock_unlocked, w_300_door_lock_lock)]</t>
-  </si>
-  <si>
     <t>[door_lock_lock_unlocked = True,
- w_300_door_lock_lock = True]</t>
+ ac_w_300_door_lock_lock = True]</t>
   </si>
   <si>
     <t>[door_lock_lock_unlocked == True]</t>
@@ -77,16 +72,16 @@
   <si>
     <t>[Implies(And(door1_contactSensor_contact_closed,
             door2_contactSensor_contact_closed),
-        And(bathroom_light_switch_on,
-            w_600_bathroom_light_switch_off)), Implies(Or(Not(door1_contactSensor_contact_closed),
+        And(ac_bathroom_light_switch_on,
+            ac_w_600_bathroom_light_switch_off)), Implies(Or(Not(door1_contactSensor_contact_closed),
            Not(door2_contactSensor_contact_closed)),
         Not(ac_bathroom_light_switch_on))]</t>
   </si>
   <si>
-    <t>[door2_contactSensor_contact_closed = True,
+    <t>[ac_bathroom_light_switch_on = True,
+ door2_contactSensor_contact_closed = True,
  door1_contactSensor_contact_closed = True,
- bathroom_light_switch_on = True,
- w_600_bathroom_light_switch_off = True]</t>
+ ac_w_600_bathroom_light_switch_off = True]</t>
   </si>
   <si>
     <t>[door2_contactSensor_contact_closed == True, door1_contactSensor_contact_closed == True]</t>
@@ -111,11 +106,11 @@
   </si>
   <si>
     <t>[Implies(battery_battery_battery &lt; 50,
-        phone_notification_deviceNotification)]</t>
+        ac_phone_notification_deviceNotification)]</t>
   </si>
   <si>
     <t>[battery_battery_battery = 49,
- phone_notification_deviceNotification = True]</t>
+ ac_phone_notification_deviceNotification = True]</t>
   </si>
   <si>
     <t>[49 == battery_battery_battery]</t>
@@ -125,11 +120,11 @@
   </si>
   <si>
     <t>[Implies(accelerationSensor_accelerationSensor_acceleration_inactive,
-        switch_switch_on)]</t>
+        ac_switch_switch_on)]</t>
   </si>
   <si>
     <t>[accelerationSensor_accelerationSensor_acceleration_inactive = True,
- switch_switch_on = True]</t>
+ ac_switch_switch_on = True]</t>
   </si>
   <si>
     <t>[accelerationSensor_accelerationSensor_acceleration_inactive ==
@@ -140,11 +135,11 @@
   </si>
   <si>
     <t>[Implies(switch_switch_switch_on,
-        phone_notification_deviceNotification), Implies(Not(switch_switch_switch_on),
+        ac_phone_notification_deviceNotification), Implies(Not(switch_switch_switch_on),
         ac_phone_notification_deviceNotification)]</t>
   </si>
   <si>
-    <t>[phone_notification_deviceNotification = True,
+    <t>[ac_phone_notification_deviceNotification = True,
  switch_switch_switch_on = True]</t>
   </si>
   <si>
@@ -158,13 +153,16 @@
     <t>[switch_switch_switch_on == False]</t>
   </si>
   <si>
+    <t>[ac_phone_notification_deviceNotification = True]</t>
+  </si>
+  <si>
     <t>['IF virtualSwitch.switch.switch == "on", THEN lights.switch.on()']</t>
   </si>
   <si>
-    <t>[Implies(virtualSwitch_switch_switch_on, lights_switch_on)]</t>
-  </si>
-  <si>
-    <t>[lights_switch_on = True,
+    <t>[Implies(virtualSwitch_switch_switch_on, ac_lights_switch_on)]</t>
+  </si>
+  <si>
+    <t>[ac_lights_switch_on = True,
  virtualSwitch_switch_switch_on = True]</t>
   </si>
   <si>
@@ -175,13 +173,13 @@
   </si>
   <si>
     <t>[Implies(presenceSensor_presenceSensor_precence_not present,
-        And(Nest_thermostatMode_setThermostatMode,
-            phone_notification_deviceNotification))]</t>
-  </si>
-  <si>
-    <t>[phone_notification_deviceNotification = True,
- presenceSensor_presenceSensor_precence_not present = True,
- Nest_thermostatMode_setThermostatMode = True]</t>
+        And(ac_Nest_thermostatMode_setThermostatMode,
+            ac_phone_notification_deviceNotification))]</t>
+  </si>
+  <si>
+    <t>[ac_Nest_thermostatMode_setThermostatMode = True,
+ ac_phone_notification_deviceNotification = True,
+ presenceSensor_presenceSensor_precence_not present = True]</t>
   </si>
   <si>
     <t>[presenceSensor_presenceSensor_precence_not present == True]</t>
@@ -191,11 +189,11 @@
   </si>
   <si>
     <t>[Implies(motionSensor_motionSensor_motion_active,
-        light_switch_on)]</t>
-  </si>
-  <si>
-    <t>[motionSensor_motionSensor_motion_active = True,
- light_switch_on = True]</t>
+        ac_light_switch_on)]</t>
+  </si>
+  <si>
+    <t>[ac_light_switch_on = True,
+ motionSensor_motionSensor_motion_active = True]</t>
   </si>
   <si>
     <t>[motionSensor_motionSensor_motion_active == True]</t>
@@ -206,7 +204,7 @@
   <si>
     <t>[Implies(Or([ motionSensor_motionSensor_motion_inactive,
            light_illuminanceMeasurement_illuminance &gt;= 50),
-        lights_switch_off), Implies(And(Not([ motionSensor_motionSensor_motion_inactive),
+        ac_lights_switch_off), Implies(And(Not([ motionSensor_motionSensor_motion_inactive),
             light_illuminanceMeasurement_illuminance &lt; 50,
             now.time &gt;= 50,
             now.time &lt;= 63/10),
@@ -214,28 +212,29 @@
   </si>
   <si>
     <t>[light_illuminanceMeasurement_illuminance = 49,
- lights_switch_off = True,
- [ motionSensor_motionSensor_motion_inactive = True]</t>
+ [ motionSensor_motionSensor_motion_inactive = True,
+ ac_lights_switch_off = True]</t>
   </si>
   <si>
     <t>[[ motionSensor_motionSensor_motion_inactive == True, 49 == light_illuminanceMeasurement_illuminance]</t>
   </si>
   <si>
-    <t>[lights_switch_off = True, now.time = 73/10]</t>
-  </si>
-  <si>
-    <t>[light_illuminanceMeasurement_illuminance = 49,
- lights_switch_off = True,
- ac_lights_switch_off = False]</t>
+    <t>[now.time = 0, ac_lights_switch_off = True]</t>
+  </si>
+  <si>
+    <t>[now.time = 73/10,
+ light_illuminanceMeasurement_illuminance = 49,
+ ac_lights_switch_off = True]</t>
   </si>
   <si>
     <t>['IF button.button.button=="pushed", THEN light.switch.on()']</t>
   </si>
   <si>
-    <t>[Implies(button_button_button_pushed, light_switch_on)]</t>
-  </si>
-  <si>
-    <t>[button_button_button_pushed = True, light_switch_on = True]</t>
+    <t>[Implies(button_button_button_pushed, ac_light_switch_on)]</t>
+  </si>
+  <si>
+    <t>[ac_light_switch_on = True,
+ button_button_button_pushed = True]</t>
   </si>
   <si>
     <t>[button_button_button_pushed == True]</t>
@@ -244,10 +243,10 @@
     <t>['IF locationMode.mode=="away", THEN camera.switch.on()']</t>
   </si>
   <si>
-    <t>[Implies(locationMode_mode_away, camera_switch_on)]</t>
-  </si>
-  <si>
-    <t>[camera_switch_on = True, locationMode_mode_away = True]</t>
+    <t>[Implies(locationMode_mode_away, ac_camera_switch_on)]</t>
+  </si>
+  <si>
+    <t>[ac_camera_switch_on = True, locationMode_mode_away = True]</t>
   </si>
   <si>
     <t>[locationMode_mode_away == True]</t>
@@ -256,11 +255,11 @@
     <t>['IF device.lock.lock == "unlocked", THEN locationMode.setMode("home")']</t>
   </si>
   <si>
-    <t>[Implies(device_lock_lock_unlocked, locationMode_setMode)]</t>
-  </si>
-  <si>
-    <t>[device_lock_lock_unlocked = True,
- locationMode_setMode = True]</t>
+    <t>[Implies(device_lock_lock_unlocked, ac_locationMode_setMode)]</t>
+  </si>
+  <si>
+    <t>[ac_locationMode_setMode = True,
+ device_lock_lock_unlocked = True]</t>
   </si>
   <si>
     <t>[device_lock_lock_unlocked == True]</t>
@@ -270,11 +269,11 @@
   </si>
   <si>
     <t>[Implies(presenceSensor_presenceSensor_presence_not present,
-        garageDoor_doorControl_close)]</t>
+        ac_garageDoor_doorControl_close)]</t>
   </si>
   <si>
     <t>[presenceSensor_presenceSensor_presence_not present = True,
- garageDoor_doorControl_close = True]</t>
+ ac_garageDoor_doorControl_close = True]</t>
   </si>
   <si>
     <t>[presenceSensor_presenceSensor_presence_not present == True]</t>
@@ -284,11 +283,11 @@
   </si>
   <si>
     <t>[Implies(motionSensor_motionSensor_motion_inactive,
-        w_60_light_switch_off)]</t>
-  </si>
-  <si>
-    <t>[w_60_light_switch_off = True,
- motionSensor_motionSensor_motion_inactive = True]</t>
+        ac_w_60_light_switch_off)]</t>
+  </si>
+  <si>
+    <t>[motionSensor_motionSensor_motion_inactive = True,
+ ac_w_60_light_switch_off = True]</t>
   </si>
   <si>
     <t>[motionSensor_motionSensor_motion_inactive == True]</t>
@@ -297,10 +296,11 @@
     <t>['IF door.contactSensor.contact == "closed", THEN door.lock.lock()']</t>
   </si>
   <si>
-    <t>[Implies(door_contactSensor_contact_closed, door_lock_lock)]</t>
-  </si>
-  <si>
-    <t>[door_lock_lock = True,
+    <t>[Implies(door_contactSensor_contact_closed,
+        ac_door_lock_lock)]</t>
+  </si>
+  <si>
+    <t>[ac_door_lock_lock = True,
  door_contactSensor_contact_closed = True]</t>
   </si>
   <si>
@@ -310,10 +310,11 @@
     <t>['IF door.lock.lock == "unlocked", THEN switch.switch.on(), ELSE switch.switch.off()']</t>
   </si>
   <si>
-    <t>[Implies(Not(door_lock_lock_unlocked), switch_switch_off), Implies(door_lock_lock_unlocked, Not(ac_switch_switch_off))]</t>
-  </si>
-  <si>
-    <t>[door_lock_lock_unlocked = False, switch_switch_off = True]</t>
+    <t>[Implies(Not(door_lock_lock_unlocked), ac_switch_switch_off), Implies(door_lock_lock_unlocked, Not(ac_switch_switch_off))]</t>
+  </si>
+  <si>
+    <t>[door_lock_lock_unlocked = False,
+ ac_switch_switch_off = True]</t>
   </si>
   <si>
     <t>[door_lock_lock_unlocked == False]</t>
@@ -326,10 +327,10 @@
     <t>['IF locationMode.mode == "home", THEN door.lock.unlock()']</t>
   </si>
   <si>
-    <t>[Implies(locationMode_mode_home, door_lock_unlock)]</t>
-  </si>
-  <si>
-    <t>[door_lock_unlock = True, locationMode_mode_home = True]</t>
+    <t>[Implies(locationMode_mode_home, ac_door_lock_unlock)]</t>
+  </si>
+  <si>
+    <t>[ac_door_lock_unlock = True, locationMode_mode_home = True]</t>
   </si>
   <si>
     <t>[locationMode_mode_home == True]</t>
@@ -339,10 +340,10 @@
   </si>
   <si>
     <t>[Implies(device_lockCodes_lockCodes_specific_code,
-        phone_notification_deviceNotification)]</t>
-  </si>
-  <si>
-    <t>[phone_notification_deviceNotification = True,
+        ac_phone_notification_deviceNotification)]</t>
+  </si>
+  <si>
+    <t>[ac_phone_notification_deviceNotification = True,
  device_lockCodes_lockCodes_specific_code = True]</t>
   </si>
   <si>
@@ -352,12 +353,12 @@
     <t>['IF door.contactSensor.contact=="open", THEN light.switch.on()', 'IF door.contactSensor.contact=="closed", THEN light.switch.off()']</t>
   </si>
   <si>
-    <t>[Implies(door_contactSensor_contact_open, light_switch_on), Implies(Not(door_contactSensor_contact_open),
+    <t>[Implies(door_contactSensor_contact_open, ac_light_switch_on), Implies(Not(door_contactSensor_contact_open),
         Not(ac_light_switch_on))]</t>
   </si>
   <si>
-    <t>[door_contactSensor_contact_open = True,
- light_switch_on = True]</t>
+    <t>[ac_light_switch_on = True,
+ door_contactSensor_contact_open = True]</t>
   </si>
   <si>
     <t>[door_contactSensor_contact_open == True]</t>
@@ -370,18 +371,16 @@
     <t>[door_contactSensor_contact_open == False]</t>
   </si>
   <si>
-    <t>[ac_light_switch_on = False, light_switch_on = True]</t>
-  </si>
-  <si>
     <t>['IF waterSensor.waterSensor.water == "wet", THEN switch.switch.on()', 'IF waterSensor.waterSensor.water == "dry", THEN switch.switch.off()']</t>
   </si>
   <si>
-    <t>[Implies(waterSensor_waterSensor_water_wet, switch_switch_on), Implies(Not(waterSensor_waterSensor_water_wet),
+    <t>[Implies(waterSensor_waterSensor_water_wet,
+        ac_switch_switch_on), Implies(Not(waterSensor_waterSensor_water_wet),
         Not(ac_switch_switch_on))]</t>
   </si>
   <si>
-    <t>[waterSensor_waterSensor_water_wet = True,
- switch_switch_on = True]</t>
+    <t>[ac_switch_switch_on = True,
+ waterSensor_waterSensor_water_wet = True]</t>
   </si>
   <si>
     <t>[waterSensor_waterSensor_water_wet == True]</t>
@@ -400,23 +399,23 @@
     <t>[Implies(And(And(now_time &gt; 50, now_time &lt; 11),
             Or(motionSensor_motionSensor_motion_inactive,
                Not(door_contactSensor_contact_open))),
-        phone_notification_deviceNotification)]</t>
+        ac_phone_notification_deviceNotification)]</t>
   </si>
   <si>
     <t>[motionSensor_motionSensor_motion_inactive = False,
- phone_notification_deviceNotification = False,
+ ac_phone_notification_deviceNotification = False,
  door_contactSensor_contact_open = False,
- now_time = 51]</t>
+ now_time = 0]</t>
   </si>
   <si>
     <t>['IF energyMeter.energyMeter.energy &gt; 50, THEN phone.notification.deviceNotification(" ")']</t>
   </si>
   <si>
     <t>[Implies(energyMeter_energyMeter_energy &gt; 50,
-        phone_notification_deviceNotification)]</t>
-  </si>
-  <si>
-    <t>[phone_notification_deviceNotification = True,
+        ac_phone_notification_deviceNotification)]</t>
+  </si>
+  <si>
+    <t>[ac_phone_notification_deviceNotification = True,
  energyMeter_energyMeter_energy = 51]</t>
   </si>
   <si>
@@ -426,10 +425,12 @@
     <t>['IF powerMeter.powerMeter.power &gt; 50, THEN switch.switch.off()']</t>
   </si>
   <si>
-    <t>[Implies(powerMeter_powerMeter_power &gt; 50, switch_switch_off)]</t>
-  </si>
-  <si>
-    <t>[switch_switch_off = True, powerMeter_powerMeter_power = 51]</t>
+    <t>[Implies(powerMeter_powerMeter_power &gt; 50,
+        ac_switch_switch_off)]</t>
+  </si>
+  <si>
+    <t>[ac_switch_switch_off = True,
+ powerMeter_powerMeter_power = 51]</t>
   </si>
   <si>
     <t>[51 == powerMeter_powerMeter_power]</t>
@@ -438,10 +439,10 @@
     <t>['IF locationMode.mode == "home", THEN device.tone.beep()']</t>
   </si>
   <si>
-    <t>[Implies(locationMode_mode_home, device_tone_beep)]</t>
-  </si>
-  <si>
-    <t>[device_tone_beep = True, locationMode_mode_home = True]</t>
+    <t>[Implies(locationMode_mode_home, ac_device_tone_beep)]</t>
+  </si>
+  <si>
+    <t>[ac_device_tone_beep = True, locationMode_mode_home = True]</t>
   </si>
   <si>
     <t>['IF door.contactSensor.contact=="open" or motionSensor.motionSensor.motion=="active" and locationMode.mode=="away", THEN device.switch.on() and phone.notification.deviceNotification(" ")']</t>
@@ -450,14 +451,14 @@
     <t>[Implies(And(locationMode_mode_away,
             Or(door_contactSensor_contact_open,
                motionSensor_motionSensor_motion_active)),
-        And(device_switch_on,
-            phone_notification_deviceNotification))]</t>
-  </si>
-  <si>
-    <t>[phone_notification_deviceNotification = True,
+        And(ac_device_switch_on,
+            ac_phone_notification_deviceNotification))]</t>
+  </si>
+  <si>
+    <t>[ac_device_switch_on = True,
+ ac_phone_notification_deviceNotification = True,
  door_contactSensor_contact_open = True,
  motionSensor_motionSensor_motion_active = False,
- device_switch_on = True,
  locationMode_mode_away = True]</t>
   </si>
   <si>
@@ -469,10 +470,10 @@
   <si>
     <t>[Implies(And(phone_presenceSensor_presence_not present,
             keys_presenceSensor_presence_present),
-        phone_notification_deviceNotification)]</t>
-  </si>
-  <si>
-    <t>[phone_notification_deviceNotification = True,
+        ac_phone_notification_deviceNotification)]</t>
+  </si>
+  <si>
+    <t>[ac_phone_notification_deviceNotification = True,
  phone_presenceSensor_presence_not present = True,
  keys_presenceSensor_presence_present = True]</t>
   </si>
@@ -485,12 +486,12 @@
   <si>
     <t>[Implies(And(garageDoor_contactSensor_contact_open,
             now_time &gt;= 12),
-        garageDoor_doorControl_close)]</t>
+        ac_garageDoor_doorControl_close)]</t>
   </si>
   <si>
     <t>[now_time = 12,
- garageDoor_contactSensor_contact_open = True,
- garageDoor_doorControl_close = True]</t>
+ ac_garageDoor_doorControl_close = True,
+ garageDoor_contactSensor_contact_open = True]</t>
   </si>
   <si>
     <t>[12 == now_time, garageDoor_contactSensor_contact_open == True]</t>
@@ -500,10 +501,10 @@
   </si>
   <si>
     <t>[Implies(presenceSensor_presenceSensor_presence_present,
-        locationMode_setMode)]</t>
-  </si>
-  <si>
-    <t>[locationMode_setMode = True,
+        ac_locationMode_setMode)]</t>
+  </si>
+  <si>
+    <t>[ac_locationMode_setMode = True,
  presenceSensor_presenceSensor_presence_present = True]</t>
   </si>
   <si>
@@ -514,11 +515,11 @@
   </si>
   <si>
     <t>[Implies(device_lock_lock == unlocked AND lockCodes_codeChanged == specific_code AND presenceSensor_presenceSensor_presence_present,
-        locationMode_setMode)]</t>
+        ac_locationMode_setMode)]</t>
   </si>
   <si>
     <t>[device_lock_lock == unlocked AND lockCodes_codeChanged == specific_code AND presenceSensor_presenceSensor_presence_present = True,
- locationMode_setMode = True]</t>
+ ac_locationMode_setMode = True]</t>
   </si>
   <si>
     <t>[device_lock_lock == unlocked AND lockCodes_codeChanged == specific_code AND presenceSensor_presenceSensor_presence_present ==
@@ -529,12 +530,12 @@
   </si>
   <si>
     <t>[Implies(And(door_contactSensor_contact_open, now_time &gt;= 12),
-        hueBulb_colorControl_setColor)]</t>
+        ac_hueBulb_colorControl_setColor)]</t>
   </si>
   <si>
     <t>[now_time = 12,
- hueBulb_colorControl_setColor = True,
- door_contactSensor_contact_open = True]</t>
+ door_contactSensor_contact_open = True,
+ ac_hueBulb_colorControl_setColor = True]</t>
   </si>
   <si>
     <t>[12 == now_time, door_contactSensor_contact_open == True]</t>
@@ -545,25 +546,25 @@
   <si>
     <t>[Implies(humiditySensor_relativeHumidityMeasurement_humidity &gt;
         30,
-        And(switch_switch_on,
-            phone_notification_deviceNotification)), Implies(humiditySensor_relativeHumidityMeasurement_humidity &lt;
+        And(ac_switch_switch_on,
+            ac_phone_notification_deviceNotification)), Implies(humiditySensor_relativeHumidityMeasurement_humidity &lt;
         60,
-        switch_switch_off()and phone_notification_deviceNotification)]</t>
-  </si>
-  <si>
-    <t>[phone_notification_deviceNotification = True,
- humiditySensor_relativeHumidityMeasurement_humidity = 31,
- switch_switch_off()and phone_notification_deviceNotification = True,
- switch_switch_on = True]</t>
+        ac_switch_switch_off()and phone_notification_deviceNotification)]</t>
+  </si>
+  <si>
+    <t>[ac_switch_switch_on = True,
+ ac_phone_notification_deviceNotification = True,
+ ac_switch_switch_off()and phone_notification_deviceNotification = True,
+ humiditySensor_relativeHumidityMeasurement_humidity = 31]</t>
   </si>
   <si>
     <t>[31 == humiditySensor_relativeHumidityMeasurement_humidity]</t>
   </si>
   <si>
-    <t>[phone_notification_deviceNotification = True,
- humiditySensor_relativeHumidityMeasurement_humidity = 59,
- switch_switch_off()and phone_notification_deviceNotification = True,
- switch_switch_on = True]</t>
+    <t>[ac_switch_switch_on = True,
+ ac_phone_notification_deviceNotification = True,
+ ac_switch_switch_off()and phone_notification_deviceNotification = True,
+ humiditySensor_relativeHumidityMeasurement_humidity = 59]</t>
   </si>
   <si>
     <t>[59 == humiditySensor_relativeHumidityMeasurement_humidity]</t>
@@ -573,11 +574,11 @@
   </si>
   <si>
     <t>[Implies(device_relativeHumidityMeasurement_humidity &lt; 30,
-        phone_notification_deviceNotification), Implies(device_relativeHumidityMeasurement_humidity &gt; 60,
+        ac_phone_notification_deviceNotification), Implies(device_relativeHumidityMeasurement_humidity &gt; 60,
         ac_phone_notification_deviceNotification)]</t>
   </si>
   <si>
-    <t>[phone_notification_deviceNotification = True,
+    <t>[ac_phone_notification_deviceNotification = True,
  device_relativeHumidityMeasurement_humidity = 29]</t>
   </si>
   <si>
@@ -597,10 +598,10 @@
     <t>[Implies(And(motionSensor_motionSensor_motion_active,
             now.time &gt; 50,
             now.time &lt; 21),
-        light_switch_on)]</t>
-  </si>
-  <si>
-    <t>[light_switch_on = False,
+        ac_light_switch_on)]</t>
+  </si>
+  <si>
+    <t>[ac_light_switch_on = False,
  motionSensor_motionSensor_motion_active = False,
  now.time = 51]</t>
   </si>
@@ -609,36 +610,32 @@
   </si>
   <si>
     <t>[Implies(Not(device1_switchLevel_level &lt; 25),
-        THEN device2_switch_off), Implies(device1_switchLevel_level &lt; 25,
-        w_20_[IFdevice1_switchLevel_level &lt; 25)]</t>
-  </si>
-  <si>
-    <t>[THEN device2_switch_off = True,
+        ac_THEN device2_switch_off), Implies(device1_switchLevel_level &lt; 25,
+        ac_w_20_[IFdevice1_switchLevel_level &lt; 25)]</t>
+  </si>
+  <si>
+    <t>[ac_THEN device2_switch_off = True,
  device1_switchLevel_level = 25]</t>
   </si>
   <si>
     <t>[25 == device1_switchLevel_level]</t>
   </si>
   <si>
-    <t>[w_20_[IFdevice1_switchLevel_level &lt; 25 = True,
+    <t>[ac_w_20_[IFdevice1_switchLevel_level &lt; 25 = True,
  device1_switchLevel_level = 24]</t>
   </si>
   <si>
     <t>[24 == device1_switchLevel_level]</t>
   </si>
   <si>
-    <t>[w_20_[IFdevice1_switchLevel_level &lt; 25 = True,
- THEN device2_switch_off = True]</t>
-  </si>
-  <si>
     <t>['IF waterSensor.waterSensor.water == "wet", THEN device.valve.close()']</t>
   </si>
   <si>
     <t>[Implies(waterSensor_waterSensor_water_wet,
-        device_valve_close)]</t>
-  </si>
-  <si>
-    <t>[device_valve_close = True,
+        ac_device_valve_close)]</t>
+  </si>
+  <si>
+    <t>[ac_device_valve_close = True,
  waterSensor_waterSensor_water_wet = True]</t>
   </si>
   <si>
@@ -646,11 +643,11 @@
   </si>
   <si>
     <t>[Implies(buzzer_switch_switch_on,
-        phone_notification_deviceNotification)]</t>
+        ac_phone_notification_deviceNotification)]</t>
   </si>
   <si>
     <t>[buzzer_switch_switch_on = True,
- phone_notification_deviceNotification = True]</t>
+ ac_phone_notification_deviceNotification = True]</t>
   </si>
   <si>
     <t>[buzzer_switch_switch_on == True]</t>
@@ -661,11 +658,11 @@
   <si>
     <t>[Implies(And(door_contactSensor_contact_closed,
             Or(locationMode_mode_away, now_time &gt;= 12)),
-        phone_notification_deviceNotification)]</t>
+        ac_phone_notification_deviceNotification)]</t>
   </si>
   <si>
     <t>[now_time = 0,
- phone_notification_deviceNotification = True,
+ ac_phone_notification_deviceNotification = True,
  door_contactSensor_contact_closed = True,
  locationMode_mode_away = True]</t>
   </si>
@@ -678,12 +675,12 @@
   <si>
     <t>[Implies(Not(thermostat_temperatureMeasurement_temperature &lt;
             72),
-        switch_switch_off), Implies(thermostat_temperatureMeasurement_temperature &lt; 72,
+        ac_switch_switch_off), Implies(thermostat_temperatureMeasurement_temperature &lt; 72,
         Not(ac_switch_switch_off))]</t>
   </si>
   <si>
     <t>[thermostat_temperatureMeasurement_temperature = 72,
- switch_switch_off = True]</t>
+ ac_switch_switch_off = True]</t>
   </si>
   <si>
     <t>[72 == thermostat_temperatureMeasurement_temperature]</t>
@@ -696,20 +693,16 @@
     <t>[71 == thermostat_temperatureMeasurement_temperature]</t>
   </si>
   <si>
-    <t>[switch_switch_off = True, ac_switch_switch_off = False]</t>
-  </si>
-  <si>
     <t>['IF thermostat.temperatureMeasurement.temperature &gt; 72, THEN switch.switch.on(), ELSE switch.switch.off()']</t>
   </si>
   <si>
     <t>[Implies(Not(thermostat_temperatureMeasurement_temperature &gt;
             72),
-        switch_switch_off), Implies(thermostat_temperatureMeasurement_temperature &gt; 72,
+        ac_switch_switch_off), Implies(thermostat_temperatureMeasurement_temperature &gt; 72,
         Not(ac_switch_switch_off))]</t>
   </si>
   <si>
     <t>[thermostat_temperatureMeasurement_temperature = 73,
- switch_switch_off = True,
  ac_switch_switch_off = False]</t>
   </si>
   <si>
@@ -722,12 +715,12 @@
     <t>[Implies(And(device_illuminanceMeasurement_illuminance &gt; 50,
             now.time &gt; 50,
             now.time &lt; 12),
-        device_windowShade_close)]</t>
-  </si>
-  <si>
-    <t>[device_windowShade_close = False,
+        ac_device_windowShade_close)]</t>
+  </si>
+  <si>
+    <t>[ac_device_windowShade_close = False,
  device_illuminanceMeasurement_illuminance = 50,
- now.time = 51]</t>
+ now.time = 0]</t>
   </si>
   <si>
     <t>['IF presenceSensor.presenceSensor.presence=="present" and  now.time&gt;= "sunset", THEN lights.switch.on()']</t>
@@ -735,11 +728,11 @@
   <si>
     <t>[Implies(And(presenceSensor_presenceSensor_presence_present,
             now_time &gt;= 183/10),
-        lights_switch_on)]</t>
+        ac_lights_switch_on)]</t>
   </si>
   <si>
     <t>[now_time = 183/10,
- lights_switch_on = True,
+ ac_lights_switch_on = True,
  presenceSensor_presenceSensor_presence_present = True]</t>
   </si>
   <si>
@@ -750,10 +743,10 @@
   </si>
   <si>
     <t>[Implies(device_powerMeter_power &gt; 100,
-        phone_notification_deviceNotification)]</t>
-  </si>
-  <si>
-    <t>[phone_notification_deviceNotification = True,
+        ac_phone_notification_deviceNotification)]</t>
+  </si>
+  <si>
+    <t>[ac_phone_notification_deviceNotification = True,
  device_powerMeter_power = 101]</t>
   </si>
   <si>
@@ -764,12 +757,12 @@
   </si>
   <si>
     <t>[Implies([ motionSensor_motionSensor_motion_inactive,
-        lights_switch_off), Implies(Not([ motionSensor_motionSensor_motion_inactive),
+        ac_lights_switch_off), Implies(Not([ motionSensor_motionSensor_motion_inactive),
         Not(ac_lights_switch_off))]</t>
   </si>
   <si>
-    <t>[lights_switch_off = True,
- [ motionSensor_motionSensor_motion_inactive = True]</t>
+    <t>[[ motionSensor_motionSensor_motion_inactive = True,
+ ac_lights_switch_off = True]</t>
   </si>
   <si>
     <t>[[ motionSensor_motionSensor_motion_inactive == True]</t>
@@ -786,12 +779,12 @@
   </si>
   <si>
     <t>[Implies(Not(presenceSensor_presenceSensor_presence_not present),
-        switch_switch_on), Implies(presenceSensor_presenceSensor_presence_not present,
+        ac_switch_switch_on), Implies(presenceSensor_presenceSensor_presence_not present,
         Not(ac_switch_switch_on))]</t>
   </si>
   <si>
     <t>[presenceSensor_presenceSensor_presence_not present = False,
- switch_switch_on = True]</t>
+ ac_switch_switch_on = True]</t>
   </si>
   <si>
     <t>[presenceSensor_presenceSensor_presence_not present == False]</t>
@@ -805,20 +798,20 @@
   </si>
   <si>
     <t>[Implies(motionSensor_motionSensor_motion_inactive,
-        switch_switch_off)]</t>
+        ac_switch_switch_off)]</t>
   </si>
   <si>
     <t>[motionSensor_motionSensor_motion_inactive = True,
- switch_switch_off = True]</t>
+ ac_switch_switch_off = True]</t>
   </si>
   <si>
     <t>['IF now.time=="11:00 AM", THEN light.switch.off()']</t>
   </si>
   <si>
-    <t>[Implies(now_time &gt;= 11, light_switch_off)]</t>
-  </si>
-  <si>
-    <t>[light_switch_off = True, now_time = 11]</t>
+    <t>[Implies(now_time &gt;= 11, ac_light_switch_off)]</t>
+  </si>
+  <si>
+    <t>[now_time = 11, ac_light_switch_off = True]</t>
   </si>
   <si>
     <t>[11 == now_time]</t>
@@ -828,12 +821,12 @@
   </si>
   <si>
     <t>[Implies(Not(door_contactSensor_contact_open),
-        light_switch_off), Implies(door_contactSensor_contact_open,
+        ac_light_switch_off), Implies(door_contactSensor_contact_open,
         Not(ac_light_switch_off))]</t>
   </si>
   <si>
-    <t>[light_switch_off = True,
- door_contactSensor_contact_open = False]</t>
+    <t>[door_contactSensor_contact_open = False,
+ ac_light_switch_off = True]</t>
   </si>
   <si>
     <t>[door_contactSensor_contact_open = True,
@@ -844,11 +837,11 @@
   </si>
   <si>
     <t>[Implies(motionSensor_ motionSensor_motion_active,
-        light_switch_on)]</t>
-  </si>
-  <si>
-    <t>[motionSensor_ motionSensor_motion_active = True,
- light_switch_on = True]</t>
+        ac_light_switch_on)]</t>
+  </si>
+  <si>
+    <t>[ac_light_switch_on = True,
+ motionSensor_ motionSensor_motion_active = True]</t>
   </si>
   <si>
     <t>[motionSensor_ motionSensor_motion_active == True]</t>
@@ -858,12 +851,12 @@
   </si>
   <si>
     <t>[Implies(Not(light_illuminanceMeasurement_illuminance &lt; 50),
-        light_switch_off), Implies(light_illuminanceMeasurement_illuminance &lt; 50,
+        ac_light_switch_off), Implies(light_illuminanceMeasurement_illuminance &lt; 50,
         Not(ac_light_switch_off))]</t>
   </si>
   <si>
-    <t>[light_switch_off = True,
- light_illuminanceMeasurement_illuminance = 50]</t>
+    <t>[light_illuminanceMeasurement_illuminance = 50,
+ ac_light_switch_off = True]</t>
   </si>
   <si>
     <t>[50 == light_illuminanceMeasurement_illuminance]</t>
@@ -876,20 +869,17 @@
     <t>[49 == light_illuminanceMeasurement_illuminance]</t>
   </si>
   <si>
-    <t>[light_switch_off = True, ac_light_switch_off = False]</t>
-  </si>
-  <si>
     <t>['IF motionSensor.motionSensor.motion == "active" and device.illuminanceMeasurement.illuminance &lt; 50, THEN light.switch.on()']</t>
   </si>
   <si>
     <t>[Implies(And(motionSensor_motionSensor_motion_active,
             device_illuminanceMeasurement_illuminance &lt; 50),
-        light_switch_on)]</t>
-  </si>
-  <si>
-    <t>[motionSensor_motionSensor_motion_active = True,
- device_illuminanceMeasurement_illuminance = 49,
- light_switch_on = True]</t>
+        ac_light_switch_on)]</t>
+  </si>
+  <si>
+    <t>[ac_light_switch_on = True,
+ motionSensor_motionSensor_motion_active = True,
+ device_illuminanceMeasurement_illuminance = 49]</t>
   </si>
   <si>
     <t>[49 == device_illuminanceMeasurement_illuminance, motionSensor_motionSensor_motion_active == True]</t>
@@ -900,12 +890,12 @@
   <si>
     <t>[Implies(Or(door_contactSensor_contact_closed,
            window_contactSensor_contact_closed),
-        device_switch_on)]</t>
-  </si>
-  <si>
-    <t>[window_contactSensor_contact_closed = False,
- door_contactSensor_contact_closed = True,
- device_switch_on = True]</t>
+        ac_device_switch_on)]</t>
+  </si>
+  <si>
+    <t>[ac_device_switch_on = True,
+ window_contactSensor_contact_closed = False,
+ door_contactSensor_contact_closed = True]</t>
   </si>
   <si>
     <t>[window_contactSensor_contact_closed == False, door_contactSensor_contact_closed == True]</t>
@@ -915,11 +905,11 @@
   </si>
   <si>
     <t>[Implies(presenceSensor_presenceSensor_presence_not present,
-        door_lock_lock)]</t>
+        ac_door_lock_lock)]</t>
   </si>
   <si>
     <t>[presenceSensor_presenceSensor_presence_not present = True,
- door_lock_lock = True]</t>
+ ac_door_lock_lock = True]</t>
   </si>
   <si>
     <t>['IF door.lock.lock=="unlocked", THEN wait("5 minutes") and door.lock.lock("locked")']</t>
@@ -964,10 +954,10 @@
   </si>
   <si>
     <t>[Implies(device_battery_battery &lt; 50,
-        phone_notification_deviceNotification)]</t>
-  </si>
-  <si>
-    <t>[phone_notification_deviceNotification = True,
+        ac_phone_notification_deviceNotification)]</t>
+  </si>
+  <si>
+    <t>[ac_phone_notification_deviceNotification = True,
  device_battery_battery = 49]</t>
   </si>
   <si>
@@ -978,10 +968,10 @@
   </si>
   <si>
     <t>[Implies(mailbox_temperatureMeasurement_temperature &gt; 50,
-        phone_notification_deviceNotification)]</t>
-  </si>
-  <si>
-    <t>[phone_notification_deviceNotification = True,
+        ac_phone_notification_deviceNotification)]</t>
+  </si>
+  <si>
+    <t>[ac_phone_notification_deviceNotification = True,
  mailbox_temperatureMeasurement_temperature = 51]</t>
   </si>
   <si>
@@ -992,11 +982,11 @@
   </si>
   <si>
     <t>[Implies(accelerationSensor_accelerationSensor_acceleration_active,
-        monitor_switch_on)]</t>
+        ac_monitor_switch_on)]</t>
   </si>
   <si>
     <t>[accelerationSensor_accelerationSensor_acceleration_active = True,
- monitor_switch_on = True]</t>
+ ac_monitor_switch_on = True]</t>
   </si>
   <si>
     <t>[accelerationSensor_accelerationSensor_acceleration_active ==
@@ -1007,11 +997,11 @@
   </si>
   <si>
     <t>[Implies(printer_accelerationSensor_acceleration_inactive,
-        phone_notification_deviceNotification)]</t>
+        ac_phone_notification_deviceNotification)]</t>
   </si>
   <si>
     <t>[printer_accelerationSensor_acceleration_inactive = True,
- phone_notification_deviceNotification = True]</t>
+ ac_phone_notification_deviceNotification = True]</t>
   </si>
   <si>
     <t>[printer_accelerationSensor_acceleration_inactive == True]</t>
@@ -1021,11 +1011,11 @@
   </si>
   <si>
     <t>[Implies(contactSensor_contactSensor_contact_open,
-        phone_notification_deviceNotification)]</t>
-  </si>
-  <si>
-    <t>[phone_notification_deviceNotification = True,
- contactSensor_contactSensor_contact_open = True]</t>
+        ac_phone_notification_deviceNotification)]</t>
+  </si>
+  <si>
+    <t>[contactSensor_contactSensor_contact_open = True,
+ ac_phone_notification_deviceNotification = True]</t>
   </si>
   <si>
     <t>[contactSensor_contactSensor_contact_open == True]</t>
@@ -1037,11 +1027,11 @@
     <t>[Implies(And(presenceSensor_presenceSensor_presence_not present,
             Or(door_contactSensor_contact_open,
                window_contactSensor_contact_open)),
-        phone_notification_deviceNotification)]</t>
+        ac_phone_notification_deviceNotification)]</t>
   </si>
   <si>
     <t>[presenceSensor_presenceSensor_presence_not present = True,
- phone_notification_deviceNotification = True,
+ ac_phone_notification_deviceNotification = True,
  door_contactSensor_contact_open = True,
  window_contactSensor_contact_open = False]</t>
   </si>
@@ -1053,12 +1043,12 @@
   </si>
   <si>
     <t>[Implies(Not(contactSensor_contactSensor_contact_closed),
-        device_switch_off), Implies(contactSensor_contactSensor_contact_closed,
+        ac_device_switch_off), Implies(contactSensor_contactSensor_contact_closed,
         Not(ac_device_switch_off))]</t>
   </si>
   <si>
     <t>[contactSensor_contactSensor_contact_closed = False,
- device_switch_off = True]</t>
+ ac_device_switch_off = True]</t>
   </si>
   <si>
     <t>[contactSensor_contactSensor_contact_closed == False]</t>
@@ -1074,11 +1064,12 @@
     <t>['IF door.contactSensor.contact=="closed", THEN light.switch.on()']</t>
   </si>
   <si>
-    <t>[Implies(door_contactSensor_contact_closed, light_switch_on)]</t>
-  </si>
-  <si>
-    <t>[door_contactSensor_contact_closed = True,
- light_switch_on = True]</t>
+    <t>[Implies(door_contactSensor_contact_closed,
+        ac_light_switch_on)]</t>
+  </si>
+  <si>
+    <t>[ac_light_switch_on = True,
+ door_contactSensor_contact_closed = True]</t>
   </si>
   <si>
     <t>['IF door.contactSensor.contact=="open" and “sunrise" &lt; now.time &lt; “sunset", THEN light.switch.on() and wait("5 minutes") and light.switch.off()']</t>
@@ -1087,33 +1078,33 @@
     <t>[Implies(And(door_contactSensor_contact_open,
             now.time &gt; 50,
             now.time &lt; 183/10),
-        And(light_switch_on, w_300_light_switch_off))]</t>
-  </si>
-  <si>
-    <t>[light_switch_on = True,
+        And(ac_light_switch_on, ac_w_300_light_switch_off))]</t>
+  </si>
+  <si>
+    <t>[ac_light_switch_on = False,
  door_contactSensor_contact_open = False,
- w_300_light_switch_off = True,
+ ac_w_300_light_switch_off = False,
  now.time = 51]</t>
   </si>
   <si>
     <t>['IF switch.switch.switch=="on", THEN garageDoor.switch.on()']</t>
   </si>
   <si>
-    <t>[Implies(switch_switch_switch_on, garageDoor_switch_on)]</t>
-  </si>
-  <si>
-    <t>[garageDoor_switch_on = True,
- switch_switch_switch_on = True]</t>
+    <t>[Implies(switch_switch_switch_on, ac_garageDoor_switch_on)]</t>
+  </si>
+  <si>
+    <t>[switch_switch_switch_on = True,
+ ac_garageDoor_switch_on = True]</t>
   </si>
   <si>
     <t>['IF presenceSensor.presenceSensor.presence=="present", THEN garageDoor.lock.unlock()']</t>
   </si>
   <si>
     <t>[Implies(presenceSensor_presenceSensor_presence_present,
-        garageDoor_lock_unlock)]</t>
-  </si>
-  <si>
-    <t>[garageDoor_lock_unlock = True,
+        ac_garageDoor_lock_unlock)]</t>
+  </si>
+  <si>
+    <t>[ac_garageDoor_lock_unlock = True,
  presenceSensor_presenceSensor_presence_present = True]</t>
   </si>
   <si>
@@ -1121,10 +1112,10 @@
   </si>
   <si>
     <t>[Implies(presenceSensor_presenceSensor_presence_present,
-        garageDoor_doorControl_open)]</t>
-  </si>
-  <si>
-    <t>[garageDoor_doorControl_open = True,
+        ac_garageDoor_doorControl_open)]</t>
+  </si>
+  <si>
+    <t>[ac_garageDoor_doorControl_open = True,
  presenceSensor_presenceSensor_presence_present = True]</t>
   </si>
   <si>
@@ -1132,10 +1123,10 @@
   </si>
   <si>
     <t>[Implies(door_contactSensor_contact_closed,
-        light_switch_off() ELSE light_switch_on)]</t>
-  </si>
-  <si>
-    <t>[light_switch_off() ELSE light_switch_on = True,
+        ac_light_switch_off() ELSE light_switch_on)]</t>
+  </si>
+  <si>
+    <t>[ac_light_switch_off() ELSE light_switch_on = True,
  door_contactSensor_contact_closed = True]</t>
   </si>
   <si>
@@ -1143,11 +1134,11 @@
   </si>
   <si>
     <t>[Implies(motionSensor_powerSource_powerSource_battery,
-        phone_notification_deviceNotification)]</t>
+        ac_phone_notification_deviceNotification)]</t>
   </si>
   <si>
     <t>[motionSensor_powerSource_powerSource_battery = True,
- phone_notification_deviceNotification = True]</t>
+ ac_phone_notification_deviceNotification = True]</t>
   </si>
   <si>
     <t>[motionSensor_powerSource_powerSource_battery == True]</t>
@@ -1157,11 +1148,11 @@
   </si>
   <si>
     <t>[Implies(And(now_day_12:00, device_energyMeter_energy &gt; 50),
-        phone_notification_deviceNotification)]</t>
+        ac_phone_notification_deviceNotification)]</t>
   </si>
   <si>
     <t>[device_energyMeter_energy = 51,
- phone_notification_deviceNotification = True,
+ ac_phone_notification_deviceNotification = True,
  now_day_12:00 = True]</t>
   </si>
   <si>
@@ -1171,10 +1162,10 @@
     <t>['IF now.time=="11:55 AM", THEN locationMode.setMode("away")']</t>
   </si>
   <si>
-    <t>[Implies(now_time &gt;= 231/20, locationMode_setMode)]</t>
-  </si>
-  <si>
-    <t>[now_time = 231/20, locationMode_setMode = True]</t>
+    <t>[Implies(now_time &gt;= 231/20, ac_locationMode_setMode)]</t>
+  </si>
+  <si>
+    <t>[now_time = 231/20, ac_locationMode_setMode = True]</t>
   </si>
   <si>
     <t>[231/20 == now_time]</t>
@@ -1184,10 +1175,10 @@
   </si>
   <si>
     <t>[Implies(device_dustSensor_dustLevel &gt; 50,
-        phone_notification_deviceNotification)]</t>
-  </si>
-  <si>
-    <t>[phone_notification_deviceNotification = True,
+        ac_phone_notification_deviceNotification)]</t>
+  </si>
+  <si>
+    <t>[ac_phone_notification_deviceNotification = True,
  device_dustSensor_dustLevel = 51]</t>
   </si>
   <si>
@@ -1198,13 +1189,12 @@
   </si>
   <si>
     <t>[Implies(device_relativeHumidityMeasurement_humidity &gt; 50,
-        humidifier_switch_on), Implies(device_relativeHumidityMeasurement_humidity &lt;= 50,
+        ac_humidifier_switch_on), Implies(device_relativeHumidityMeasurement_humidity &lt;= 50,
         Not(ac_humidifier_switch_on))]</t>
   </si>
   <si>
-    <t>[humidifier_switch_on = True,
- device_relativeHumidityMeasurement_humidity = 51,
- ac_humidifier_switch_on = False]</t>
+    <t>[device_relativeHumidityMeasurement_humidity = 51,
+ ac_humidifier_switch_on = True]</t>
   </si>
   <si>
     <t>[51 == device_relativeHumidityMeasurement_humidity]</t>
@@ -1217,22 +1207,18 @@
     <t>[50 == device_relativeHumidityMeasurement_humidity]</t>
   </si>
   <si>
-    <t>[humidifier_switch_on = True,
- ac_humidifier_switch_on = False]</t>
-  </si>
-  <si>
     <t>['IF device.illuminanceMeasurement.illuminance &lt;50 and motionSensor.motionSensor.motion == "active", THEN lights.switch.on() and  wait("5 minutes") and lights.switch.off()']</t>
   </si>
   <si>
     <t>[Implies(And(device_illuminanceMeasurement_illuminance &lt; 50,
             motionSensor_motionSensor_motion_active),
-        And(lights_switch_on, w_300_lights_switch_off))]</t>
+        And(ac_lights_switch_on, ac_w_300_lights_switch_off))]</t>
   </si>
   <si>
     <t>[motionSensor_motionSensor_motion_active = True,
- w_300_lights_switch_off = True,
- device_illuminanceMeasurement_illuminance = 49,
- lights_switch_on = True]</t>
+ ac_lights_switch_on = True,
+ ac_w_300_lights_switch_off = True,
+ device_illuminanceMeasurement_illuminance = 49]</t>
   </si>
   <si>
     <t>['IF presenceSensor.presenceSensor.presence == "present" or door.lock.lock == "unlocked" and  now.time &gt;= "sunset", THEN lights.switch.on() and wait("5 minutes") and lights.switch.off()']</t>
@@ -1241,13 +1227,13 @@
     <t>[Implies(And(now_time &gt;= 183/10,
             Or(presenceSensor_presenceSensor_presence_present,
                door_lock_lock_unlocked)),
-        And(lights_switch_on, w_300_lights_switch_off))]</t>
+        And(ac_lights_switch_on, ac_w_300_lights_switch_off))]</t>
   </si>
   <si>
     <t>[now_time = 183/10,
- w_300_lights_switch_off = True,
  door_lock_lock_unlocked = False,
- lights_switch_on = True,
+ ac_lights_switch_on = True,
+ ac_w_300_lights_switch_off = True,
  presenceSensor_presenceSensor_presence_present = True]</t>
   </si>
   <si>
@@ -1259,31 +1245,31 @@
   <si>
     <t>[Implies(And(device_illuminanceMeasurement_illuminance &lt; 50,
             motionSensor_motionSensor_motion_active),
-        lights_switch_on), Implies(Or(device_illuminanceMeasurement_illuminance &gt;= 50,
+        ac_lights_switch_on), Implies(Or(device_illuminanceMeasurement_illuminance &gt;= 50,
            motionSensor_motion_inactive),
-        w_300_lights_switch_off)]</t>
+        ac_w_300_lights_switch_off)]</t>
   </si>
   <si>
     <t>[motionSensor_motionSensor_motion_active = True,
  motionSensor_motion_inactive = False,
- device_illuminanceMeasurement_illuminance = 49,
- lights_switch_on = True]</t>
-  </si>
-  <si>
-    <t>[w_300_lights_switch_off = True,
+ ac_lights_switch_on = True,
+ device_illuminanceMeasurement_illuminance = 49]</t>
+  </si>
+  <si>
+    <t>[motionSensor_motion_inactive = True,
+ ac_lights_switch_on = True,
+ ac_w_300_lights_switch_off = True,
+ device_illuminanceMeasurement_illuminance = 49]</t>
+  </si>
+  <si>
+    <t>[motionSensor_motion_inactive == True, 49 == device_illuminanceMeasurement_illuminance]</t>
+  </si>
+  <si>
+    <t>[motionSensor_motionSensor_motion_active = True,
  motionSensor_motion_inactive = True,
- device_illuminanceMeasurement_illuminance = 49,
- lights_switch_on = True]</t>
-  </si>
-  <si>
-    <t>[motionSensor_motion_inactive == True, 49 == device_illuminanceMeasurement_illuminance]</t>
-  </si>
-  <si>
-    <t>[motionSensor_motionSensor_motion_active = True,
- w_300_lights_switch_off = True,
- motionSensor_motion_inactive = True,
- device_illuminanceMeasurement_illuminance = 0,
- lights_switch_on = True]</t>
+ ac_lights_switch_on = True,
+ ac_w_300_lights_switch_off = True,
+ device_illuminanceMeasurement_illuminance = 0]</t>
   </si>
   <si>
     <t>[motionSensor_motion_inactive == True, 0 == device_illuminanceMeasurement_illuminance, motionSensor_motionSensor_motion_active == True]</t>
@@ -1293,12 +1279,12 @@
   </si>
   <si>
     <t>[Implies(presenceSensor_presenceSensor_presence_present,
-        And(locationMode_setMode,
-            phone_notification_deviceNotification))]</t>
-  </si>
-  <si>
-    <t>[phone_notification_deviceNotification = True,
- locationMode_setMode = True,
+        And(ac_locationMode_setMode,
+            ac_phone_notification_deviceNotification))]</t>
+  </si>
+  <si>
+    <t>[ac_phone_notification_deviceNotification = True,
+ ac_locationMode_setMode = True,
  presenceSensor_presenceSensor_presence_present = True]</t>
   </si>
   <si>
@@ -1307,13 +1293,13 @@
   <si>
     <t>[Implies(And(door_contactSensor_contact_closed,
             accelerationSensor_acceleration_active),
-        And(light_switch_on, w_300_light_switch_off))]</t>
-  </si>
-  <si>
-    <t>[w_300_light_switch_off = True,
+        And(ac_light_switch_on, ac_w_300_light_switch_off))]</t>
+  </si>
+  <si>
+    <t>[ac_light_switch_on = True,
+ accelerationSensor_acceleration_active = True,
  door_contactSensor_contact_closed = True,
- accelerationSensor_acceleration_active = True,
- light_switch_on = True]</t>
+ ac_w_300_light_switch_off = True]</t>
   </si>
   <si>
     <t>[accelerationSensor_acceleration_active == True, door_contactSensor_contact_closed == True]</t>
@@ -1322,40 +1308,37 @@
     <t>['IF switch.switch.switch=="on", THEN lights.switch.on()', 'IF switch.switch.switch=="off", THEN lights.switch.off()']</t>
   </si>
   <si>
-    <t>[Implies(switch_switch_switch_on, lights_switch_on), Implies(Not(switch_switch_switch_on),
+    <t>[Implies(switch_switch_switch_on, ac_lights_switch_on), Implies(Not(switch_switch_switch_on),
         Not(ac_lights_switch_on))]</t>
   </si>
   <si>
-    <t>[switch_switch_switch_on = True, lights_switch_on = True]</t>
+    <t>[switch_switch_switch_on = True, ac_lights_switch_on = True]</t>
   </si>
   <si>
     <t>[switch_switch_switch_on = False,
  ac_lights_switch_on = False]</t>
   </si>
   <si>
-    <t>[ac_lights_switch_on = False, lights_switch_on = True]</t>
-  </si>
-  <si>
     <t>['IF motionSensor.motionSensor.motion == "active", THEN phone.notification.deviceNotification(" ")']</t>
   </si>
   <si>
     <t>[Implies(motionSensor_motionSensor_motion_active,
-        phone_notification_deviceNotification)]</t>
-  </si>
-  <si>
-    <t>[motionSensor_motionSensor_motion_active = True,
- phone_notification_deviceNotification = True]</t>
+        ac_phone_notification_deviceNotification)]</t>
+  </si>
+  <si>
+    <t>[ac_phone_notification_deviceNotification = True,
+ motionSensor_motionSensor_motion_active = True]</t>
   </si>
   <si>
     <t>['IF device.networkMeter.downlinkSpeed &lt;50, THEN phone.notification.deviceNotification(" ")']</t>
   </si>
   <si>
     <t>[Implies(device_networkMeter_downlinkSpeed &lt; 50,
-        phone_notification_deviceNotification)]</t>
+        ac_phone_notification_deviceNotification)]</t>
   </si>
   <si>
     <t>[device_networkMeter_downlinkSpeed = 49,
- phone_notification_deviceNotification = True]</t>
+ ac_phone_notification_deviceNotification = True]</t>
   </si>
   <si>
     <t>[49 == device_networkMeter_downlinkSpeed]</t>
@@ -1364,10 +1347,10 @@
     <t>['IF device.switch.switch=="on", THEN wait("5 miniutes") and  switch.switch.off()']</t>
   </si>
   <si>
-    <t>[Implies(device_switch_switch_on, w_5_switch_switch_off)]</t>
-  </si>
-  <si>
-    <t>[w_5_switch_switch_off = True,
+    <t>[Implies(device_switch_switch_on, ac_w_5_switch_switch_off)]</t>
+  </si>
+  <si>
+    <t>[ac_w_5_switch_switch_off = True,
  device_switch_switch_on = True]</t>
   </si>
   <si>
@@ -1378,10 +1361,10 @@
   </si>
   <si>
     <t>[Implies(motionSensor_motionSensor_motion_active,
-        light_switch_on()  ELSE  light_switch_off)]</t>
-  </si>
-  <si>
-    <t>[light_switch_on()  ELSE  light_switch_off = True,
+        ac_light_switch_on()  ELSE  light_switch_off)]</t>
+  </si>
+  <si>
+    <t>[ac_light_switch_on()  ELSE  light_switch_off = True,
  motionSensor_motionSensor_motion_active = True]</t>
   </si>
   <si>
@@ -1390,11 +1373,11 @@
   <si>
     <t>[Implies(And(motionSensor_motionSensor_motion_active,
             presenceSensor_presenceSensor_presence_not present),
-        phone_notification_deviceNotification)]</t>
+        ac_phone_notification_deviceNotification)]</t>
   </si>
   <si>
     <t>[presenceSensor_presenceSensor_presence_not present = True,
- phone_notification_deviceNotification = True,
+ ac_phone_notification_deviceNotification = True,
  motionSensor_motionSensor_motion_active = True]</t>
   </si>
   <si>
@@ -1405,12 +1388,12 @@
   </si>
   <si>
     <t>[Implies(Not(specificSwitch_switch_switch_on),
-        lights_switch_off), Implies(specificSwitch_switch_switch_on,
+        ac_lights_switch_off), Implies(specificSwitch_switch_switch_on,
         Not(ac_lights_switch_off))]</t>
   </si>
   <si>
     <t>[specificSwitch_switch_switch_on = False,
- lights_switch_off = True]</t>
+ ac_lights_switch_off = True]</t>
   </si>
   <si>
     <t>[specificSwitch_switch_switch_on == False]</t>
@@ -1421,9 +1404,6 @@
   </si>
   <si>
     <t>[specificSwitch_switch_switch_on == True]</t>
-  </si>
-  <si>
-    <t>[lights_switch_off = True, ac_lights_switch_off = False]</t>
   </si>
   <si>
     <t>['IF motionSensor.motionSensor.motion == "active" or contactSensor.contactSensor.contact == "open" or  device.switch.switch == "on", THEN lights.switch.on() and wait("30 seconds") and lights.switch.off()']</t>
@@ -1432,17 +1412,17 @@
     <t>[Implies(Or(motionSensor_motionSensor_motion_active,
            contactSensor_contactSensor_contact_open,
            device_switch_switch_on),
-        And(lights_switch_on, w_30_lights_switch_off))]</t>
-  </si>
-  <si>
-    <t>[w_30_lights_switch_off = True,
- motionSensor_motionSensor_motion_active = False,
+        And(ac_lights_switch_on, ac_w_30_lights_switch_off))]</t>
+  </si>
+  <si>
+    <t>[ac_w_30_lights_switch_off = True,
+ motionSensor_motionSensor_motion_active = True,
  contactSensor_contactSensor_contact_open = False,
- lights_switch_on = True,
- device_switch_switch_on = True]</t>
-  </si>
-  <si>
-    <t>[motionSensor_motionSensor_motion_active == False, contactSensor_contactSensor_contact_open == False, device_switch_switch_on == True]</t>
+ ac_lights_switch_on = True,
+ device_switch_switch_on = False]</t>
+  </si>
+  <si>
+    <t>[motionSensor_motionSensor_motion_active == True, contactSensor_contactSensor_contact_open == False, device_switch_switch_on == False]</t>
   </si>
   <si>
     <t>['IF device.thermostatMode.thermostatMode == "cool" or device.thermostatMode.thermostatMode == "heat"  and  windows.contactSensor.contact == ""open"" or doors.contactSensor.contact == ""open"",  THEN thermostatMode.setThermostatMode("off") and phone.notification.deviceNotification(""Windows or doors are open!"")']</t>
@@ -1452,35 +1432,35 @@
            Not(device_thermostatMode_thermostatMode_cool),
            windows_contactSensor_contact_open,
            doors_contactSensor_contact_open),
-        And(thermostatMode_setThermostatMode,
-            phone_notification_deviceNotification))]</t>
-  </si>
-  <si>
-    <t>[phone_notification_deviceNotification = True,
- thermostatMode_setThermostatMode = True]</t>
+        And(ac_thermostatMode_setThermostatMode,
+            ac_phone_notification_deviceNotification))]</t>
+  </si>
+  <si>
+    <t>[ac_phone_notification_deviceNotification = True,
+ ac_thermostatMode_setThermostatMode = True]</t>
   </si>
   <si>
     <t>['IF door.contactSensor.contact == "open", THEN switch.switch.on() and wait("5 minutes") and switch.switch.off()']</t>
   </si>
   <si>
     <t>[Implies(door_contactSensor_contact_open,
-        And(switch_switch_on, w_300_switch_switch_off))]</t>
-  </si>
-  <si>
-    <t>[w_300_switch_switch_off = True,
- door_contactSensor_contact_open = True,
- switch_switch_on = True]</t>
+        And(ac_switch_switch_on, ac_w_300_switch_switch_off))]</t>
+  </si>
+  <si>
+    <t>[ac_w_300_switch_switch_off = True,
+ ac_switch_switch_on = True,
+ door_contactSensor_contact_open = True]</t>
   </si>
   <si>
     <t>['IF presenceSensor.presenceSensor.presence=="present", THEN switch.switch.on(), ELSE switch.switch.off()']</t>
   </si>
   <si>
     <t>[Implies(Not(presenceSensor_presenceSensor_presence_present),
-        switch_switch_off), Implies(presenceSensor_presenceSensor_presence_present,
+        ac_switch_switch_off), Implies(presenceSensor_presenceSensor_presence_present,
         Not(ac_switch_switch_off))]</t>
   </si>
   <si>
-    <t>[switch_switch_off = True,
+    <t>[ac_switch_switch_off = True,
  presenceSensor_presenceSensor_presence_present = False]</t>
   </si>
   <si>
@@ -1495,20 +1475,20 @@
   </si>
   <si>
     <t>[Implies(presenceSensor_presenceSensor_presence_present,
-        light_switch_on)]</t>
-  </si>
-  <si>
-    <t>[presenceSensor_presenceSensor_presence_present = True,
- light_switch_on = True]</t>
+        ac_light_switch_on)]</t>
+  </si>
+  <si>
+    <t>[ac_light_switch_on = True,
+ presenceSensor_presenceSensor_presence_present = True]</t>
   </si>
   <si>
     <t>['IF now.time == "sunrise", THEN switch.switch.on()']</t>
   </si>
   <si>
-    <t>[Implies(now_time &gt;= 63/10, switch_switch_on)]</t>
-  </si>
-  <si>
-    <t>[now_time = 63/10, switch_switch_on = True]</t>
+    <t>[Implies(now_time &gt;= 63/10, ac_switch_switch_on)]</t>
+  </si>
+  <si>
+    <t>[now_time = 63/10, ac_switch_switch_on = True]</t>
   </si>
   <si>
     <t>[63/10 == now_time]</t>
@@ -1517,10 +1497,10 @@
     <t>['IF now.time=="sunset", THEN switch.switch.on()']</t>
   </si>
   <si>
-    <t>[Implies(now_time &gt;= 183/10, switch_switch_on)]</t>
-  </si>
-  <si>
-    <t>[now_time = 183/10, switch_switch_on = True]</t>
+    <t>[Implies(now_time &gt;= 183/10, ac_switch_switch_on)]</t>
+  </si>
+  <si>
+    <t>[now_time = 183/10, ac_switch_switch_on = True]</t>
   </si>
   <si>
     <t>[183/10 == now_time]</t>
@@ -1530,20 +1510,20 @@
   </si>
   <si>
     <t>[Implies(presenceSensor_presenceSensor_presence_present,
-        relaySwitch_switch_on)]</t>
-  </si>
-  <si>
-    <t>[relaySwitch_switch_on = True,
+        ac_relaySwitch_switch_on)]</t>
+  </si>
+  <si>
+    <t>[ac_relaySwitch_switch_on = True,
  presenceSensor_presenceSensor_presence_present = True]</t>
   </si>
   <si>
     <t>['IF device.switch.switch=="on", THEN wait("5 seconds") and device.switch.off()']</t>
   </si>
   <si>
-    <t>[Implies(device_switch_switch_on, w_5_device_switch_off)]</t>
-  </si>
-  <si>
-    <t>[w_5_device_switch_off = True,
+    <t>[Implies(device_switch_switch_on, ac_w_5_device_switch_off)]</t>
+  </si>
+  <si>
+    <t>[ac_w_5_device_switch_off = True,
  device_switch_switch_on = True]</t>
   </si>
   <si>
@@ -1551,42 +1531,43 @@
   </si>
   <si>
     <t>[Implies(motionSensor_motionSensor_motion_active,
-        lights_switch_on)]</t>
+        ac_lights_switch_on)]</t>
   </si>
   <si>
     <t>[motionSensor_motionSensor_motion_active = True,
- lights_switch_on = True]</t>
+ ac_lights_switch_on = True]</t>
   </si>
   <si>
     <t>['IF contactSensor.contactSensor.contact == "open", THEN device.switch.off()']</t>
   </si>
   <si>
     <t>[Implies(contactSensor_contactSensor_contact_open,
-        device_switch_off)]</t>
+        ac_device_switch_off)]</t>
   </si>
   <si>
     <t>[contactSensor_contactSensor_contact_open = True,
- device_switch_off = True]</t>
+ ac_device_switch_off = True]</t>
   </si>
   <si>
     <t>['IF door.contactSensor.contact == "open", THEN lights.switch.on()']</t>
   </si>
   <si>
-    <t>[Implies(door_contactSensor_contact_open, lights_switch_on)]</t>
+    <t>[Implies(door_contactSensor_contact_open,
+        ac_lights_switch_on)]</t>
   </si>
   <si>
     <t>[door_contactSensor_contact_open = True,
- lights_switch_on = True]</t>
+ ac_lights_switch_on = True]</t>
   </si>
   <si>
     <t>['IF presenceSensor.presenceSensor.presence=="present", THEN lock.lock.unlock()']</t>
   </si>
   <si>
     <t>[Implies(presenceSensor_presenceSensor_presence_present,
-        lock_lock_unlock)]</t>
-  </si>
-  <si>
-    <t>[lock_lock_unlock = True,
+        ac_lock_lock_unlock)]</t>
+  </si>
+  <si>
+    <t>[ac_lock_lock_unlock = True,
  presenceSensor_presenceSensor_presence_present = True]</t>
   </si>
   <si>
@@ -1595,11 +1576,11 @@
   <si>
     <t>[Implies(And(presenceSensor_presenceSensor_presence_present,
             motionSensor_motionSensor_motion_active),
-        device_lock_unlock)]</t>
+        ac_device_lock_unlock)]</t>
   </si>
   <si>
     <t>[motionSensor_motionSensor_motion_active = True,
- device_lock_unlock = True,
+ ac_device_lock_unlock = True,
  presenceSensor_presenceSensor_presence_present = True]</t>
   </si>
   <si>
@@ -1610,11 +1591,11 @@
   </si>
   <si>
     <t>[Implies(device_mediaInputSource_inputSource_HDMI,
-        mediaPlayback_setPlaybackStatus)]</t>
-  </si>
-  <si>
-    <t>[device_mediaInputSource_inputSource_HDMI = True,
- mediaPlayback_setPlaybackStatus = True]</t>
+        ac_mediaPlayback_setPlaybackStatus)]</t>
+  </si>
+  <si>
+    <t>[ac_mediaPlayback_setPlaybackStatus = True,
+ device_mediaInputSource_inputSource_HDMI = True]</t>
   </si>
   <si>
     <t>[device_mediaInputSource_inputSource_HDMI == True]</t>
@@ -1624,15 +1605,11 @@
   </si>
   <si>
     <t>[Implies(door_lock_lock_unlocked,
-        phone_notification_deviceNotification)]</t>
+        ac_phone_notification_deviceNotification)]</t>
   </si>
   <si>
     <t>[door_lock_lock_unlocked = True,
- phone_notification_deviceNotification = True]</t>
-  </si>
-  <si>
-    <t>[humidifier_switch_on = True,
- device_relativeHumidityMeasurement_humidity = 51]</t>
+ ac_phone_notification_deviceNotification = True]</t>
   </si>
   <si>
     <t>['IF motionSensor.motionSensor.motion == "active" and  device.temperatureMeasurement.temperature &gt;= 30, THEN heater.switch..off() and AC.switch.on() ', 'IF motionSensor.motionSensor.motion == "active" and device.temperatureMeasurement.temperature&lt;= 10, THEN heater.switch.on() and AC.switch.off()']</t>
@@ -1640,20 +1617,20 @@
   <si>
     <t>[Implies(And(motionSensor_motionSensor_motion_active,
             device_temperatureMeasurement_temperature &gt;= 30),
-        AC_switch_on), Implies(And(motionSensor_motionSensor_motion_active,
+        ac_AC_switch_on), Implies(And(motionSensor_motionSensor_motion_active,
             device_temperatureMeasurement_temperature &lt;= 10),
-        And(heater_switch_on, Not(ac_AC_switch_on)))]</t>
-  </si>
-  <si>
-    <t>[motionSensor_motionSensor_motion_active = True,
- device_temperatureMeasurement_temperature = 30,
- AC_switch_on = True]</t>
+        And(ac_heater_switch_on, Not(ac_AC_switch_on)))]</t>
+  </si>
+  <si>
+    <t>[ac_AC_switch_on = True,
+ motionSensor_motionSensor_motion_active = True,
+ device_temperatureMeasurement_temperature = 30]</t>
   </si>
   <si>
     <t>[30 == device_temperatureMeasurement_temperature, motionSensor_motionSensor_motion_active == True]</t>
   </si>
   <si>
-    <t>[heater_switch_on = True,
+    <t>[ac_heater_switch_on = True,
  ac_AC_switch_on = False,
  motionSensor_motionSensor_motion_active = True,
  device_temperatureMeasurement_temperature = 10]</t>
@@ -1662,9 +1639,9 @@
     <t>[10 == device_temperatureMeasurement_temperature, motionSensor_motionSensor_motion_active == True]</t>
   </si>
   <si>
-    <t>[heater_switch_on = True,
+    <t>[ac_heater_switch_on = True,
  ac_AC_switch_on = False,
- AC_switch_on = True]</t>
+ device_temperatureMeasurement_temperature = 10]</t>
   </si>
   <si>
     <t>['IF presenceSensor.presenceSensor.presence == "present" and  now.time&gt;="sunset", THEN lights.switch.on()']</t>
@@ -1675,16 +1652,20 @@
   <si>
     <t>[Implies(And(presenceSensor_presenceSensor_presence_present,
             garageDoor_contactSensor_contact_closed),
-        And(garageDoor_momentary_push, lights_switch_on))]</t>
-  </si>
-  <si>
-    <t>[garageDoor_contactSensor_contact_closed = True,
- garageDoor_momentary_push = True,
- lights_switch_on = True,
- presenceSensor_presenceSensor_presence_present = True]</t>
+        And(ac_garageDoor_momentary_push,
+            ac_lights_switch_on))]</t>
+  </si>
+  <si>
+    <t>[presenceSensor_presenceSensor_presence_present = True,
+ garageDoor_contactSensor_contact_closed = True,
+ ac_lights_switch_on = True,
+ ac_garageDoor_momentary_push = True]</t>
   </si>
   <si>
     <t>[garageDoor_contactSensor_contact_closed == True, presenceSensor_presenceSensor_presence_present == True]</t>
+  </si>
+  <si>
+    <t>Z3Formula ('w_':wait, 'ac_':action)</t>
   </si>
 </sst>
 </file>
@@ -1740,11 +1721,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2050,14 +2032,13 @@
   <dimension ref="A1:F157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="40.88671875" customWidth="1"/>
-    <col min="3" max="3" width="83.33203125" customWidth="1"/>
-    <col min="5" max="5" width="56.5546875" customWidth="1"/>
+    <col min="2" max="2" width="43.77734375" customWidth="1"/>
+    <col min="3" max="3" width="82.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -2068,36 +2049,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2105,19 +2083,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2125,19 +2100,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2145,19 +2117,19 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2165,19 +2137,19 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2185,19 +2157,19 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
         <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -2205,19 +2177,19 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
         <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -2225,19 +2197,19 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>25</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -2245,19 +2217,19 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2265,19 +2237,19 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>33</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -2285,19 +2257,19 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
         <v>35</v>
-      </c>
-      <c r="F12" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -2305,19 +2277,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
         <v>31</v>
       </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -2331,7 +2303,7 @@
         <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
         <v>39</v>
@@ -2351,7 +2323,7 @@
         <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
         <v>43</v>
@@ -2371,7 +2343,7 @@
         <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
         <v>47</v>
@@ -2391,7 +2363,7 @@
         <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
         <v>51</v>
@@ -2411,13 +2383,13 @@
         <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
         <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -2431,13 +2403,13 @@
         <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
         <v>54</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -2451,7 +2423,7 @@
         <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
         <v>57</v>
@@ -2471,7 +2443,7 @@
         <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
         <v>61</v>
@@ -2491,7 +2463,7 @@
         <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
         <v>65</v>
@@ -2511,7 +2483,7 @@
         <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
         <v>69</v>
@@ -2531,7 +2503,7 @@
         <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
         <v>73</v>
@@ -2551,7 +2523,7 @@
         <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
@@ -2571,7 +2543,7 @@
         <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
         <v>81</v>
@@ -2591,13 +2563,13 @@
         <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
         <v>83</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2611,13 +2583,13 @@
         <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
         <v>83</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -2631,7 +2603,7 @@
         <v>85</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
         <v>86</v>
@@ -2651,7 +2623,7 @@
         <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
         <v>90</v>
@@ -2671,7 +2643,7 @@
         <v>93</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
         <v>94</v>
@@ -2691,7 +2663,7 @@
         <v>93</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
         <v>96</v>
@@ -2711,13 +2683,13 @@
         <v>93</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2725,19 +2697,19 @@
         <v>22</v>
       </c>
       <c r="B34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" t="s">
         <v>99</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
         <v>100</v>
       </c>
-      <c r="D34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>101</v>
-      </c>
-      <c r="F34" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2745,19 +2717,19 @@
         <v>22</v>
       </c>
       <c r="B35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" t="s">
         <v>99</v>
       </c>
-      <c r="C35" t="s">
-        <v>100</v>
-      </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" t="s">
         <v>103</v>
-      </c>
-      <c r="F35" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2765,19 +2737,19 @@
         <v>22</v>
       </c>
       <c r="B36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" t="s">
         <v>99</v>
       </c>
-      <c r="C36" t="s">
-        <v>100</v>
-      </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2785,19 +2757,19 @@
         <v>23</v>
       </c>
       <c r="B37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" t="s">
         <v>105</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
         <v>106</v>
       </c>
-      <c r="D37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" t="s">
-        <v>107</v>
-      </c>
       <c r="F37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2805,19 +2777,19 @@
         <v>24</v>
       </c>
       <c r="B38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" t="s">
         <v>108</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
         <v>109</v>
       </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>110</v>
-      </c>
-      <c r="F38" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2825,19 +2797,19 @@
         <v>25</v>
       </c>
       <c r="B39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" t="s">
         <v>112</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
         <v>113</v>
       </c>
-      <c r="D39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>114</v>
-      </c>
-      <c r="F39" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2845,16 +2817,16 @@
         <v>26</v>
       </c>
       <c r="B40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" t="s">
         <v>116</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
         <v>117</v>
-      </c>
-      <c r="D40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" t="s">
-        <v>118</v>
       </c>
       <c r="F40" t="s">
         <v>87</v>
@@ -2865,19 +2837,19 @@
         <v>27</v>
       </c>
       <c r="B41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" t="s">
         <v>119</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
         <v>120</v>
       </c>
-      <c r="D41" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>121</v>
-      </c>
-      <c r="F41" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2885,19 +2857,19 @@
         <v>28</v>
       </c>
       <c r="B42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" t="s">
         <v>123</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
         <v>124</v>
       </c>
-      <c r="D42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>125</v>
-      </c>
-      <c r="F42" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2905,19 +2877,19 @@
         <v>30</v>
       </c>
       <c r="B43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" t="s">
         <v>127</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
         <v>128</v>
       </c>
-      <c r="D43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>129</v>
-      </c>
-      <c r="F43" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2925,19 +2897,19 @@
         <v>31</v>
       </c>
       <c r="B44" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" t="s">
         <v>131</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
         <v>132</v>
       </c>
-      <c r="D44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>133</v>
-      </c>
-      <c r="F44" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2945,19 +2917,19 @@
         <v>33</v>
       </c>
       <c r="B45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" t="s">
         <v>135</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
         <v>136</v>
       </c>
-      <c r="D45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>137</v>
-      </c>
-      <c r="F45" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2965,19 +2937,19 @@
         <v>34</v>
       </c>
       <c r="B46" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" t="s">
         <v>139</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s">
         <v>140</v>
       </c>
-      <c r="D46" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>141</v>
-      </c>
-      <c r="F46" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2985,19 +2957,19 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" t="s">
         <v>143</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
         <v>144</v>
       </c>
-      <c r="D47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>145</v>
-      </c>
-      <c r="F47" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -3005,19 +2977,19 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" t="s">
         <v>143</v>
       </c>
-      <c r="C48" t="s">
-        <v>144</v>
-      </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
+        <v>146</v>
+      </c>
+      <c r="F48" t="s">
         <v>147</v>
-      </c>
-      <c r="F48" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -3025,19 +2997,19 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" t="s">
         <v>143</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" t="s">
         <v>144</v>
       </c>
-      <c r="D49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>145</v>
-      </c>
-      <c r="F49" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -3045,19 +3017,19 @@
         <v>36</v>
       </c>
       <c r="B50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" t="s">
         <v>149</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
         <v>150</v>
       </c>
-      <c r="D50" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>151</v>
-      </c>
-      <c r="F50" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -3065,19 +3037,19 @@
         <v>36</v>
       </c>
       <c r="B51" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" t="s">
         <v>149</v>
       </c>
-      <c r="C51" t="s">
-        <v>150</v>
-      </c>
       <c r="D51" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
+        <v>152</v>
+      </c>
+      <c r="F51" t="s">
         <v>153</v>
-      </c>
-      <c r="F51" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -3085,19 +3057,19 @@
         <v>36</v>
       </c>
       <c r="B52" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" t="s">
         <v>149</v>
       </c>
-      <c r="C52" t="s">
-        <v>150</v>
-      </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -3105,19 +3077,19 @@
         <v>37</v>
       </c>
       <c r="B53" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" t="s">
         <v>155</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" t="s">
         <v>156</v>
       </c>
-      <c r="D53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" t="s">
-        <v>157</v>
-      </c>
       <c r="F53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -3125,19 +3097,19 @@
         <v>38</v>
       </c>
       <c r="B54" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" t="s">
         <v>158</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
         <v>159</v>
       </c>
-      <c r="D54" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>160</v>
-      </c>
-      <c r="F54" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -3145,19 +3117,19 @@
         <v>38</v>
       </c>
       <c r="B55" t="s">
+        <v>157</v>
+      </c>
+      <c r="C55" t="s">
         <v>158</v>
       </c>
-      <c r="C55" t="s">
-        <v>159</v>
-      </c>
       <c r="D55" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
+        <v>161</v>
+      </c>
+      <c r="F55" t="s">
         <v>162</v>
-      </c>
-      <c r="F55" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -3165,19 +3137,19 @@
         <v>38</v>
       </c>
       <c r="B56" t="s">
+        <v>157</v>
+      </c>
+      <c r="C56" t="s">
         <v>158</v>
       </c>
-      <c r="C56" t="s">
-        <v>159</v>
-      </c>
       <c r="D56" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -3185,19 +3157,19 @@
         <v>39</v>
       </c>
       <c r="B57" t="s">
+        <v>163</v>
+      </c>
+      <c r="C57" t="s">
+        <v>164</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
         <v>165</v>
       </c>
-      <c r="C57" t="s">
-        <v>166</v>
-      </c>
-      <c r="D57" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" t="s">
-        <v>167</v>
-      </c>
       <c r="F57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -3205,19 +3177,19 @@
         <v>40</v>
       </c>
       <c r="B58" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" t="s">
+        <v>167</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
         <v>168</v>
       </c>
-      <c r="C58" t="s">
+      <c r="F58" t="s">
         <v>169</v>
-      </c>
-      <c r="D58" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" t="s">
-        <v>170</v>
-      </c>
-      <c r="F58" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -3225,19 +3197,19 @@
         <v>41</v>
       </c>
       <c r="B59" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" t="s">
+        <v>171</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" t="s">
         <v>172</v>
       </c>
-      <c r="C59" t="s">
+      <c r="F59" t="s">
         <v>173</v>
-      </c>
-      <c r="D59" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" t="s">
-        <v>174</v>
-      </c>
-      <c r="F59" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -3245,19 +3217,19 @@
         <v>42</v>
       </c>
       <c r="B60" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" t="s">
+        <v>175</v>
+      </c>
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" t="s">
         <v>176</v>
       </c>
-      <c r="C60" t="s">
+      <c r="F60" t="s">
         <v>177</v>
-      </c>
-      <c r="D60" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" t="s">
-        <v>178</v>
-      </c>
-      <c r="F60" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -3265,19 +3237,19 @@
         <v>42</v>
       </c>
       <c r="B61" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C61" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D61" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F61" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -3285,19 +3257,19 @@
         <v>42</v>
       </c>
       <c r="B62" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C62" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D62" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -3305,19 +3277,19 @@
         <v>43</v>
       </c>
       <c r="B63" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C63" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D63" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F63" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -3325,19 +3297,19 @@
         <v>43</v>
       </c>
       <c r="B64" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" t="s">
+        <v>181</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" t="s">
+        <v>182</v>
+      </c>
+      <c r="F64" t="s">
         <v>183</v>
-      </c>
-      <c r="C64" t="s">
-        <v>184</v>
-      </c>
-      <c r="D64" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" t="s">
-        <v>185</v>
-      </c>
-      <c r="F64" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -3345,19 +3317,19 @@
         <v>43</v>
       </c>
       <c r="B65" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C65" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D65" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -3365,19 +3337,19 @@
         <v>44</v>
       </c>
       <c r="B66" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C66" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D66" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -3385,19 +3357,19 @@
         <v>45</v>
       </c>
       <c r="B67" t="s">
+        <v>187</v>
+      </c>
+      <c r="C67" t="s">
+        <v>188</v>
+      </c>
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" t="s">
+        <v>189</v>
+      </c>
+      <c r="F67" t="s">
         <v>190</v>
-      </c>
-      <c r="C67" t="s">
-        <v>191</v>
-      </c>
-      <c r="D67" t="s">
-        <v>8</v>
-      </c>
-      <c r="E67" t="s">
-        <v>192</v>
-      </c>
-      <c r="F67" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -3405,19 +3377,19 @@
         <v>46</v>
       </c>
       <c r="B68" t="s">
+        <v>191</v>
+      </c>
+      <c r="C68" t="s">
+        <v>192</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" t="s">
+        <v>193</v>
+      </c>
+      <c r="F68" t="s">
         <v>194</v>
-      </c>
-      <c r="C68" t="s">
-        <v>195</v>
-      </c>
-      <c r="D68" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" t="s">
-        <v>196</v>
-      </c>
-      <c r="F68" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -3425,19 +3397,19 @@
         <v>50</v>
       </c>
       <c r="B69" t="s">
+        <v>195</v>
+      </c>
+      <c r="C69" t="s">
+        <v>196</v>
+      </c>
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" t="s">
+        <v>197</v>
+      </c>
+      <c r="F69" t="s">
         <v>198</v>
-      </c>
-      <c r="C69" t="s">
-        <v>199</v>
-      </c>
-      <c r="D69" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" t="s">
-        <v>200</v>
-      </c>
-      <c r="F69" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -3445,19 +3417,19 @@
         <v>50</v>
       </c>
       <c r="B70" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C70" t="s">
+        <v>196</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" t="s">
         <v>199</v>
       </c>
-      <c r="D70" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" t="s">
-        <v>202</v>
-      </c>
       <c r="F70" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -3465,19 +3437,19 @@
         <v>50</v>
       </c>
       <c r="B71" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C71" t="s">
+        <v>196</v>
+      </c>
+      <c r="D71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" t="s">
         <v>199</v>
       </c>
-      <c r="D71" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" t="s">
-        <v>202</v>
-      </c>
       <c r="F71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -3485,19 +3457,19 @@
         <v>51</v>
       </c>
       <c r="B72" t="s">
+        <v>201</v>
+      </c>
+      <c r="C72" t="s">
+        <v>202</v>
+      </c>
+      <c r="D72" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" t="s">
+        <v>203</v>
+      </c>
+      <c r="F72" t="s">
         <v>204</v>
-      </c>
-      <c r="C72" t="s">
-        <v>205</v>
-      </c>
-      <c r="D72" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -3505,16 +3477,16 @@
         <v>51</v>
       </c>
       <c r="B73" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C73" t="s">
+        <v>202</v>
+      </c>
+      <c r="D73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" t="s">
         <v>205</v>
-      </c>
-      <c r="D73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73" t="s">
-        <v>208</v>
       </c>
       <c r="F73" t="s">
         <v>70</v>
@@ -3525,19 +3497,19 @@
         <v>51</v>
       </c>
       <c r="B74" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C74" t="s">
+        <v>202</v>
+      </c>
+      <c r="D74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" t="s">
         <v>205</v>
       </c>
-      <c r="D74" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" t="s">
-        <v>208</v>
-      </c>
       <c r="F74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -3545,16 +3517,16 @@
         <v>52</v>
       </c>
       <c r="B75" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C75" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D75" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F75" t="s">
         <v>74</v>
@@ -3565,19 +3537,19 @@
         <v>53</v>
       </c>
       <c r="B76" t="s">
+        <v>209</v>
+      </c>
+      <c r="C76" t="s">
+        <v>210</v>
+      </c>
+      <c r="D76" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" t="s">
+        <v>211</v>
+      </c>
+      <c r="F76" t="s">
         <v>212</v>
-      </c>
-      <c r="C76" t="s">
-        <v>213</v>
-      </c>
-      <c r="D76" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" t="s">
-        <v>214</v>
-      </c>
-      <c r="F76" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3585,16 +3557,16 @@
         <v>54</v>
       </c>
       <c r="B77" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C77" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D77" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F77" t="s">
         <v>97</v>
@@ -3605,16 +3577,16 @@
         <v>54</v>
       </c>
       <c r="B78" t="s">
+        <v>213</v>
+      </c>
+      <c r="C78" t="s">
+        <v>214</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" t="s">
         <v>216</v>
-      </c>
-      <c r="C78" t="s">
-        <v>217</v>
-      </c>
-      <c r="D78" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" t="s">
-        <v>219</v>
       </c>
       <c r="F78" t="s">
         <v>95</v>
@@ -3625,19 +3597,19 @@
         <v>54</v>
       </c>
       <c r="B79" t="s">
+        <v>213</v>
+      </c>
+      <c r="C79" t="s">
+        <v>214</v>
+      </c>
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" t="s">
         <v>216</v>
       </c>
-      <c r="C79" t="s">
-        <v>217</v>
-      </c>
-      <c r="D79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" t="s">
-        <v>219</v>
-      </c>
       <c r="F79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -3645,19 +3617,19 @@
         <v>55</v>
       </c>
       <c r="B80" t="s">
+        <v>217</v>
+      </c>
+      <c r="C80" t="s">
+        <v>218</v>
+      </c>
+      <c r="D80" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" t="s">
+        <v>219</v>
+      </c>
+      <c r="F80" t="s">
         <v>220</v>
-      </c>
-      <c r="C80" t="s">
-        <v>221</v>
-      </c>
-      <c r="D80" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80" t="s">
-        <v>222</v>
-      </c>
-      <c r="F80" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -3665,19 +3637,19 @@
         <v>56</v>
       </c>
       <c r="B81" t="s">
+        <v>221</v>
+      </c>
+      <c r="C81" t="s">
+        <v>222</v>
+      </c>
+      <c r="D81" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" t="s">
+        <v>223</v>
+      </c>
+      <c r="F81" t="s">
         <v>224</v>
-      </c>
-      <c r="C81" t="s">
-        <v>225</v>
-      </c>
-      <c r="D81" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" t="s">
-        <v>226</v>
-      </c>
-      <c r="F81" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -3685,19 +3657,19 @@
         <v>56</v>
       </c>
       <c r="B82" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C82" t="s">
+        <v>222</v>
+      </c>
+      <c r="D82" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" t="s">
         <v>225</v>
       </c>
-      <c r="D82" t="s">
-        <v>8</v>
-      </c>
-      <c r="E82" t="s">
-        <v>228</v>
-      </c>
       <c r="F82" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -3705,19 +3677,19 @@
         <v>56</v>
       </c>
       <c r="B83" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C83" t="s">
+        <v>222</v>
+      </c>
+      <c r="D83" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" t="s">
         <v>225</v>
       </c>
-      <c r="D83" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" t="s">
-        <v>230</v>
-      </c>
       <c r="F83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -3725,19 +3697,19 @@
         <v>57</v>
       </c>
       <c r="B84" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C84" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D84" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F84" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -3745,19 +3717,19 @@
         <v>59</v>
       </c>
       <c r="B85" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C85" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D85" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F85" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -3765,16 +3737,16 @@
         <v>60</v>
       </c>
       <c r="B86" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C86" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D86" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F86" t="s">
         <v>70</v>
@@ -3785,19 +3757,19 @@
         <v>61</v>
       </c>
       <c r="B87" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" t="s">
         <v>12</v>
       </c>
-      <c r="D87" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>13</v>
-      </c>
-      <c r="F87" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -3805,19 +3777,19 @@
         <v>62</v>
       </c>
       <c r="B88" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C88" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D88" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F88" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -3825,19 +3797,19 @@
         <v>62</v>
       </c>
       <c r="B89" t="s">
+        <v>239</v>
+      </c>
+      <c r="C89" t="s">
+        <v>240</v>
+      </c>
+      <c r="D89" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" t="s">
         <v>243</v>
       </c>
-      <c r="C89" t="s">
+      <c r="F89" t="s">
         <v>244</v>
-      </c>
-      <c r="D89" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" t="s">
-        <v>247</v>
-      </c>
-      <c r="F89" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -3845,19 +3817,19 @@
         <v>62</v>
       </c>
       <c r="B90" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C90" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D90" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F90" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -3865,19 +3837,19 @@
         <v>63</v>
       </c>
       <c r="B91" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C91" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D91" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F91" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -3885,19 +3857,19 @@
         <v>64</v>
       </c>
       <c r="B92" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C92" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D92" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F92" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -3905,19 +3877,19 @@
         <v>65</v>
       </c>
       <c r="B93" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C93" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D93" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F93" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -3925,19 +3897,19 @@
         <v>66</v>
       </c>
       <c r="B94" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C94" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D94" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F94" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -3945,19 +3917,19 @@
         <v>67</v>
       </c>
       <c r="B95" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C95" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D95" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F95" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -3965,19 +3937,19 @@
         <v>68</v>
       </c>
       <c r="B96" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C96" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D96" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F96" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -3985,19 +3957,19 @@
         <v>71</v>
       </c>
       <c r="B97" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C97" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D97" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F97" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -4005,19 +3977,19 @@
         <v>74</v>
       </c>
       <c r="B98" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C98" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D98" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F98" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -4025,19 +3997,19 @@
         <v>74</v>
       </c>
       <c r="B99" t="s">
+        <v>271</v>
+      </c>
+      <c r="C99" t="s">
+        <v>272</v>
+      </c>
+      <c r="D99" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" t="s">
         <v>275</v>
       </c>
-      <c r="C99" t="s">
+      <c r="F99" t="s">
         <v>276</v>
-      </c>
-      <c r="D99" t="s">
-        <v>8</v>
-      </c>
-      <c r="E99" t="s">
-        <v>279</v>
-      </c>
-      <c r="F99" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -4045,19 +4017,19 @@
         <v>74</v>
       </c>
       <c r="B100" t="s">
+        <v>271</v>
+      </c>
+      <c r="C100" t="s">
+        <v>272</v>
+      </c>
+      <c r="D100" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" t="s">
         <v>275</v>
       </c>
-      <c r="C100" t="s">
-        <v>276</v>
-      </c>
-      <c r="D100" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" t="s">
-        <v>279</v>
-      </c>
       <c r="F100" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -4065,16 +4037,16 @@
         <v>75</v>
       </c>
       <c r="B101" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C101" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D101" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F101" t="s">
         <v>78</v>
@@ -4085,19 +4057,19 @@
         <v>76</v>
       </c>
       <c r="B102" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C102" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D102" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -4105,19 +4077,19 @@
         <v>77</v>
       </c>
       <c r="B103" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C103" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D103" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -4125,19 +4097,19 @@
         <v>78</v>
       </c>
       <c r="B104" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C104" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D104" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F104" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -4145,19 +4117,19 @@
         <v>79</v>
       </c>
       <c r="B105" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C105" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D105" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F105" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -4165,16 +4137,16 @@
         <v>80</v>
       </c>
       <c r="B106" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C106" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D106" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F106" t="s">
         <v>78</v>
@@ -4185,19 +4157,19 @@
         <v>81</v>
       </c>
       <c r="B107" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C107" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D107" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F107" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -4205,19 +4177,19 @@
         <v>82</v>
       </c>
       <c r="B108" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C108" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D108" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F108" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -4225,19 +4197,19 @@
         <v>83</v>
       </c>
       <c r="B109" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C109" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D109" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F109" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -4245,19 +4217,19 @@
         <v>85</v>
       </c>
       <c r="B110" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C110" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D110" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F110" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -4265,19 +4237,19 @@
         <v>86</v>
       </c>
       <c r="B111" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C111" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D111" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F111" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -4285,19 +4257,19 @@
         <v>86</v>
       </c>
       <c r="B112" t="s">
+        <v>311</v>
+      </c>
+      <c r="C112" t="s">
+        <v>312</v>
+      </c>
+      <c r="D112" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" t="s">
         <v>315</v>
       </c>
-      <c r="C112" t="s">
+      <c r="F112" t="s">
         <v>316</v>
-      </c>
-      <c r="D112" t="s">
-        <v>8</v>
-      </c>
-      <c r="E112" t="s">
-        <v>319</v>
-      </c>
-      <c r="F112" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -4305,19 +4277,19 @@
         <v>86</v>
       </c>
       <c r="B113" t="s">
+        <v>311</v>
+      </c>
+      <c r="C113" t="s">
+        <v>312</v>
+      </c>
+      <c r="D113" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" t="s">
         <v>315</v>
       </c>
-      <c r="C113" t="s">
-        <v>316</v>
-      </c>
-      <c r="D113" t="s">
-        <v>8</v>
-      </c>
-      <c r="E113" t="s">
-        <v>321</v>
-      </c>
       <c r="F113" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -4325,19 +4297,19 @@
         <v>87</v>
       </c>
       <c r="B114" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C114" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D114" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F114" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -4345,19 +4317,19 @@
         <v>88</v>
       </c>
       <c r="B115" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C115" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D115" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F115" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -4365,19 +4337,19 @@
         <v>89</v>
       </c>
       <c r="B116" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C116" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D116" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F116" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -4385,19 +4357,19 @@
         <v>89</v>
       </c>
       <c r="B117" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C117" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D117" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F117" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -4405,19 +4377,19 @@
         <v>89</v>
       </c>
       <c r="B118" t="s">
+        <v>324</v>
+      </c>
+      <c r="C118" t="s">
+        <v>325</v>
+      </c>
+      <c r="D118" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" t="s">
         <v>329</v>
       </c>
-      <c r="C118" t="s">
+      <c r="F118" t="s">
         <v>330</v>
-      </c>
-      <c r="D118" t="s">
-        <v>8</v>
-      </c>
-      <c r="E118" t="s">
-        <v>334</v>
-      </c>
-      <c r="F118" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -4425,19 +4397,19 @@
         <v>90</v>
       </c>
       <c r="B119" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C119" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D119" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="F119" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -4445,19 +4417,19 @@
         <v>91</v>
       </c>
       <c r="B120" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C120" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D120" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F120" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -4465,19 +4437,19 @@
         <v>92</v>
       </c>
       <c r="B121" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C121" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D121" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -4485,19 +4457,19 @@
         <v>92</v>
       </c>
       <c r="B122" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C122" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D122" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -4505,19 +4477,19 @@
         <v>92</v>
       </c>
       <c r="B123" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C123" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D123" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F123" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -4525,16 +4497,16 @@
         <v>93</v>
       </c>
       <c r="B124" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C124" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D124" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F124" t="s">
         <v>48</v>
@@ -4545,19 +4517,19 @@
         <v>95</v>
       </c>
       <c r="B125" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C125" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D125" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F125" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -4565,19 +4537,19 @@
         <v>96</v>
       </c>
       <c r="B126" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C126" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D126" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F126" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -4585,16 +4557,16 @@
         <v>97</v>
       </c>
       <c r="B127" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C127" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D127" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F127" t="s">
         <v>48</v>
@@ -4605,19 +4577,19 @@
         <v>98</v>
       </c>
       <c r="B128" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C128" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D128" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F128" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -4625,19 +4597,19 @@
         <v>99</v>
       </c>
       <c r="B129" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C129" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D129" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="F129" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -4645,19 +4617,19 @@
         <v>99</v>
       </c>
       <c r="B130" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C130" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D130" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="F130" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -4665,19 +4637,19 @@
         <v>99</v>
       </c>
       <c r="B131" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C131" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D131" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="F131" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -4685,19 +4657,19 @@
         <v>100</v>
       </c>
       <c r="B132" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C132" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D132" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F132" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -4705,19 +4677,19 @@
         <v>102</v>
       </c>
       <c r="B133" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C133" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D133" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F133" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -4725,16 +4697,16 @@
         <v>104</v>
       </c>
       <c r="B134" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C134" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D134" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="F134" t="s">
         <v>95</v>
@@ -4745,19 +4717,19 @@
         <v>105</v>
       </c>
       <c r="B135" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C135" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D135" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F135" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -4765,19 +4737,19 @@
         <v>105</v>
       </c>
       <c r="B136" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C136" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D136" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F136" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -4785,19 +4757,19 @@
         <v>105</v>
       </c>
       <c r="B137" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C137" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D137" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F137" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -4805,19 +4777,19 @@
         <v>106</v>
       </c>
       <c r="B138" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C138" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D138" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F138" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -4825,19 +4797,19 @@
         <v>108</v>
       </c>
       <c r="B139" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C139" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D139" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F139" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -4845,19 +4817,19 @@
         <v>109</v>
       </c>
       <c r="B140" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C140" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D140" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F140" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -4865,19 +4837,19 @@
         <v>110</v>
       </c>
       <c r="B141" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C141" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D141" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F141" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -4885,19 +4857,19 @@
         <v>111</v>
       </c>
       <c r="B142" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C142" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="D142" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="F142" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -4905,16 +4877,16 @@
         <v>112</v>
       </c>
       <c r="B143" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C143" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D143" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F143" t="s">
         <v>48</v>
@@ -4925,19 +4897,19 @@
         <v>113</v>
       </c>
       <c r="B144" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C144" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D144" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="F144" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -4945,16 +4917,16 @@
         <v>114</v>
       </c>
       <c r="B145" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C145" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D145" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F145" t="s">
         <v>95</v>
@@ -4965,19 +4937,19 @@
         <v>115</v>
       </c>
       <c r="B146" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C146" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="D146" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="F146" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -4985,19 +4957,19 @@
         <v>116</v>
       </c>
       <c r="B147" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C147" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D147" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F147" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -5005,19 +4977,19 @@
         <v>117</v>
       </c>
       <c r="B148" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C148" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D148" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F148" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -5025,19 +4997,19 @@
         <v>118</v>
       </c>
       <c r="B149" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C149" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="D149" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F149" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -5045,19 +5017,19 @@
         <v>119</v>
       </c>
       <c r="B150" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C150" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D150" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>428</v>
+        <v>313</v>
       </c>
       <c r="F150" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -5065,19 +5037,19 @@
         <v>119</v>
       </c>
       <c r="B151" t="s">
+        <v>311</v>
+      </c>
+      <c r="C151" t="s">
+        <v>312</v>
+      </c>
+      <c r="D151" t="s">
+        <v>11</v>
+      </c>
+      <c r="E151" t="s">
         <v>315</v>
       </c>
-      <c r="C151" t="s">
+      <c r="F151" t="s">
         <v>316</v>
-      </c>
-      <c r="D151" t="s">
-        <v>8</v>
-      </c>
-      <c r="E151" t="s">
-        <v>319</v>
-      </c>
-      <c r="F151" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -5085,19 +5057,19 @@
         <v>119</v>
       </c>
       <c r="B152" t="s">
+        <v>311</v>
+      </c>
+      <c r="C152" t="s">
+        <v>312</v>
+      </c>
+      <c r="D152" t="s">
+        <v>11</v>
+      </c>
+      <c r="E152" t="s">
         <v>315</v>
       </c>
-      <c r="C152" t="s">
-        <v>316</v>
-      </c>
-      <c r="D152" t="s">
-        <v>8</v>
-      </c>
-      <c r="E152" t="s">
-        <v>319</v>
-      </c>
       <c r="F152" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -5105,19 +5077,19 @@
         <v>120</v>
       </c>
       <c r="B153" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C153" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="D153" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F153" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -5125,19 +5097,19 @@
         <v>120</v>
       </c>
       <c r="B154" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C154" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="D154" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F154" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -5145,19 +5117,19 @@
         <v>120</v>
       </c>
       <c r="B155" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C155" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="D155" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F155" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -5165,19 +5137,19 @@
         <v>122</v>
       </c>
       <c r="B156" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="C156" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D156" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F156" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -5185,19 +5157,19 @@
         <v>123</v>
       </c>
       <c r="B157" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C157" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="D157" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F157" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
